--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/site_distribution_configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F564CCAB-0775-9841-9383-62DB622B2F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD78BCF7-51E1-3D48-8822-722F8EEB1BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,9 +66,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>GEND_GBV.N.ViolenceServiceType.20T.physEmot</t>
-  </si>
-  <si>
     <t>GEND_GBV</t>
   </si>
   <si>
@@ -77,15 +75,9 @@
     <t>physEmot</t>
   </si>
   <si>
-    <t>GEND_GBV.N.ViolenceServiceType.20T.postRape</t>
-  </si>
-  <si>
     <t>postRape</t>
   </si>
   <si>
-    <t>HTS_INDEX_COM.N.Age/Sex/Result.20T.NewNeg</t>
-  </si>
-  <si>
     <t>HTS_INDEX_COM</t>
   </si>
   <si>
@@ -95,21 +87,12 @@
     <t>NewNeg</t>
   </si>
   <si>
-    <t>HTS_INDEX_COM.N.Age/Sex/Result.20T.NewPos</t>
-  </si>
-  <si>
     <t>NewPos</t>
   </si>
   <si>
-    <t>HTS_INDEX_FAC.N.Age/Sex/Result.20T.NewNeg</t>
-  </si>
-  <si>
     <t>HTS_INDEX_FAC</t>
   </si>
   <si>
-    <t>HTS_INDEX_FAC.N.Age/Sex/Result.20T.NewPos</t>
-  </si>
-  <si>
     <t>HTS_RECENT.D.Age/Sex/HIVIndication.20T.Assay</t>
   </si>
   <si>
@@ -125,9 +108,6 @@
     <t>Assay</t>
   </si>
   <si>
-    <t>HTS_SELF.N.Age/Sex/HIVSelfTest.20T.Directly_Assisted</t>
-  </si>
-  <si>
     <t>HTS_SELF</t>
   </si>
   <si>
@@ -137,162 +117,75 @@
     <t>Directly_Assisted</t>
   </si>
   <si>
-    <t>HTS_SELF.N.HIVSelfTest.20T.Unassisted</t>
-  </si>
-  <si>
     <t>HIVSelfTest</t>
   </si>
   <si>
     <t>Unassisted</t>
   </si>
   <si>
-    <t>HTS_TST_EmergencyWard.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_EmergencyWard</t>
   </si>
   <si>
     <t>Negative</t>
   </si>
   <si>
-    <t>HTS_TST_EmergencyWard.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>HTS_TST_Inpat.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_Inpat</t>
   </si>
   <si>
-    <t>HTS_TST_Inpat.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_Malnutrition.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_Malnutrition</t>
   </si>
   <si>
-    <t>HTS_TST_Malnutrition.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_MobileMod.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_MobileMod</t>
   </si>
   <si>
-    <t>HTS_TST_MobileMod.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_OtherMod.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_OtherMod</t>
   </si>
   <si>
-    <t>HTS_TST_OtherMod.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_OtherPITC.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_OtherPITC</t>
   </si>
   <si>
-    <t>HTS_TST_OtherPITC.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_Pediatric.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_Pediatric</t>
   </si>
   <si>
-    <t>HTS_TST_Pediatric.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_PMTCTPostANC1.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_PMTCTPostANC1</t>
   </si>
   <si>
-    <t>HTS_TST_PMTCTPostANC1.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_STIClinic.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_STIClinic</t>
   </si>
   <si>
-    <t>HTS_TST_STIClinic.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_VCT.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_VCT</t>
   </si>
   <si>
-    <t>HTS_TST_VCT.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST_VCTMod.N.Age/Sex/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST_VCTMod</t>
   </si>
   <si>
-    <t>HTS_TST_VCTMod.N.Age/Sex/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>HTS_TST.N.KeyPop/Result.20T.Negative</t>
-  </si>
-  <si>
     <t>HTS_TST</t>
   </si>
   <si>
     <t>KeyPop/Result</t>
   </si>
   <si>
-    <t>HTS_TST.N.KeyPop/Result.20T.Positive</t>
-  </si>
-  <si>
-    <t>KP_MAT.N.Sex.20T</t>
-  </si>
-  <si>
     <t>KP_MAT</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>KP_PREV.N.KeyPop.20T</t>
-  </si>
-  <si>
     <t>KP_PREV</t>
   </si>
   <si>
     <t>KeyPop</t>
   </si>
   <si>
-    <t>OVC_HIVSTAT.N.total.20T</t>
-  </si>
-  <si>
     <t>OVC_HIVSTAT</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>OVC_SERV.N.Age/Sex/ProgramStatus.20T.Active</t>
-  </si>
-  <si>
     <t>OVC_SERV</t>
   </si>
   <si>
@@ -302,15 +195,9 @@
     <t>Active</t>
   </si>
   <si>
-    <t>OVC_SERV.N.Age/Sex/ProgramStatus.20T.Graduated</t>
-  </si>
-  <si>
     <t>Graduated</t>
   </si>
   <si>
-    <t>PMTCT_ART.N.Age/NewExistingART/Sex/HIVStatus.20T.Already</t>
-  </si>
-  <si>
     <t>PMTCT_ART</t>
   </si>
   <si>
@@ -320,15 +207,9 @@
     <t>Already</t>
   </si>
   <si>
-    <t>PMTCT_ART.N.Age/NewExistingART/Sex/HIVStatus.20T.New</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
-    <t>PMTCT_EID.N.Age.20T.2mo</t>
-  </si>
-  <si>
     <t>PMTCT_EID</t>
   </si>
   <si>
@@ -338,75 +219,36 @@
     <t>2mo</t>
   </si>
   <si>
-    <t>PMTCT_EID.N.Age.20T.2to12mo</t>
-  </si>
-  <si>
     <t>2to12mo</t>
   </si>
   <si>
-    <t>PMTCT_STAT.D.Age/Sex.20T</t>
-  </si>
-  <si>
     <t>PMTCT_STAT</t>
   </si>
   <si>
     <t>Age/Sex</t>
   </si>
   <si>
-    <t>PMTCT_STAT.N.Age/Sex/KnownNewResult.20T.KnownPos</t>
-  </si>
-  <si>
     <t>Age/Sex/KnownNewResult</t>
   </si>
   <si>
     <t>KnownPos</t>
   </si>
   <si>
-    <t>PMTCT_STAT.N.Age/Sex/KnownNewResult.20T.NewNeg</t>
-  </si>
-  <si>
-    <t>PMTCT_STAT.N.Age/Sex/KnownNewResult.20T.NewPos</t>
-  </si>
-  <si>
-    <t>PP_PREV.N.Age/Sex.20T</t>
-  </si>
-  <si>
     <t>PP_PREV</t>
   </si>
   <si>
-    <t>PrEP_CURR.N.Age/Sex.20T</t>
-  </si>
-  <si>
     <t>PrEP_CURR</t>
   </si>
   <si>
-    <t>PrEP_CURR.N.KeyPop.20T</t>
-  </si>
-  <si>
-    <t>PrEP_NEW.N.Age/Sex.20T</t>
-  </si>
-  <si>
     <t>PrEP_NEW</t>
   </si>
   <si>
-    <t>PrEP_NEW.N.KeyPop.20T</t>
-  </si>
-  <si>
-    <t>TB_ART.N.Age/Sex/NewExistingART/HIVStatus.20T.Already</t>
-  </si>
-  <si>
     <t>TB_ART</t>
   </si>
   <si>
     <t>Age/Sex/NewExistingART/HIVStatus</t>
   </si>
   <si>
-    <t>TB_ART.N.Age/Sex/NewExistingART/HIVStatus.20T.New</t>
-  </si>
-  <si>
-    <t>TB_PREV.D.Age/TherapyType/NewExistingArt/HIVStatus.20T.IPTAlready</t>
-  </si>
-  <si>
     <t>TB_PREV</t>
   </si>
   <si>
@@ -416,75 +258,30 @@
     <t>IPTAlready</t>
   </si>
   <si>
-    <t>TB_PREV.D.Age/TherapyType/NewExistingArt/HIVStatus.20T.IPTNew</t>
-  </si>
-  <si>
     <t>IPTNew</t>
   </si>
   <si>
-    <t>TB_PREV.D.Age/TherapyType/NewExistingArt/HIVStatus.20T.TPTAlready</t>
-  </si>
-  <si>
     <t>TPTAlready</t>
   </si>
   <si>
-    <t>TB_PREV.D.Age/TherapyType/NewExistingArt/HIVStatus.20T.TPTNew</t>
-  </si>
-  <si>
     <t>TPTNew</t>
   </si>
   <si>
-    <t>TB_PREV.N.Age/TherapyType/NewExistingArt/HIVStatus.20T.IPTAlready</t>
-  </si>
-  <si>
-    <t>TB_PREV.N.Age/TherapyType/NewExistingArt/HIVStatus.20T.IPTNew</t>
-  </si>
-  <si>
-    <t>TB_PREV.N.Age/TherapyType/NewExistingArt/HIVStatus.20T.TPTAlready</t>
-  </si>
-  <si>
-    <t>TB_PREV.N.Age/TherapyType/NewExistingArt/HIVStatus.20T.TPTNew</t>
-  </si>
-  <si>
-    <t>TB_STAT.D.Age/Sex.20T</t>
-  </si>
-  <si>
     <t>TB_STAT</t>
   </si>
   <si>
-    <t>TB_STAT.N.Age/Sex/KnownNewPosNeg.20T.KnownPos</t>
-  </si>
-  <si>
     <t>Age/Sex/KnownNewPosNeg</t>
   </si>
   <si>
-    <t>TB_STAT.N.Age/Sex/KnownNewPosNeg.20T.NewNeg</t>
-  </si>
-  <si>
-    <t>TB_STAT.N.Age/Sex/KnownNewPosNeg.20T.NewPos</t>
-  </si>
-  <si>
-    <t>TX_CURR.N.Age/Sex/HIVStatus.20T</t>
-  </si>
-  <si>
     <t>TX_CURR</t>
   </si>
   <si>
-    <t>TX_NEW.N.Age/Sex/HIVStatus.20T</t>
-  </si>
-  <si>
     <t>TX_NEW</t>
   </si>
   <si>
-    <t>TX_NEW.N.KeyPop/HIVStatus.20T</t>
-  </si>
-  <si>
     <t>KeyPop/HIVStatus</t>
   </si>
   <si>
-    <t>TX_PVLS.D.Age/Sex/Indication/HIVStatus.20T.Routine</t>
-  </si>
-  <si>
     <t>TX_PVLS</t>
   </si>
   <si>
@@ -494,12 +291,6 @@
     <t>Routine</t>
   </si>
   <si>
-    <t>TX_PVLS.N.Age/Sex/Indication/HIVStatus.20T.Routine</t>
-  </si>
-  <si>
-    <t>TX_TB.D.Age/Sex/TBScreen/NewExistingART/HIVStatus.20T.ScreenNegAlready</t>
-  </si>
-  <si>
     <t>TX_TB</t>
   </si>
   <si>
@@ -509,36 +300,18 @@
     <t>ScreenNegAlready</t>
   </si>
   <si>
-    <t>TX_TB.D.Age/Sex/TBScreen/NewExistingART/HIVStatus.20T.ScreenNegNew</t>
-  </si>
-  <si>
     <t>ScreenNegNew</t>
   </si>
   <si>
-    <t>TX_TB.D.Age/Sex/TBScreen/NewExistingART/HIVStatus.20T.ScreenPosAlready</t>
-  </si>
-  <si>
     <t>ScreenPosAlready</t>
   </si>
   <si>
-    <t>TX_TB.D.Age/Sex/TBScreen/NewExistingART/HIVStatus.20T.ScreenPosNew</t>
-  </si>
-  <si>
     <t>ScreenPosNew</t>
   </si>
   <si>
-    <t>VMMC_CIRC.N.Age/Sex/HIVStatus.20T.Negative</t>
-  </si>
-  <si>
     <t>VMMC_CIRC</t>
   </si>
   <si>
-    <t>VMMC_CIRC.N.Age/Sex/HIVStatus.20T.Positive</t>
-  </si>
-  <si>
-    <t>VMMC_CIRC.N.Age/Sex/HIVStatus.20T.Unknown</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -1157,199 +930,427 @@
     <t>M</t>
   </si>
   <si>
+    <t>Technical Area_fy20_cop</t>
+  </si>
+  <si>
+    <t>Numerator / Denominator_fy20_cop</t>
+  </si>
+  <si>
+    <t>Other_fy20_cop</t>
+  </si>
+  <si>
+    <t>other_disagg</t>
+  </si>
+  <si>
+    <t>disagg_type</t>
+  </si>
+  <si>
+    <t>Disagregation Type_fy20_cop</t>
+  </si>
+  <si>
+    <t>technical_area_uid</t>
+  </si>
+  <si>
+    <t>num_or_den_uid</t>
+  </si>
+  <si>
+    <t>disagg_type_uid</t>
+  </si>
+  <si>
+    <t>Som9NRMQqV7</t>
+  </si>
+  <si>
+    <t>QpNj0nSuEhD</t>
+  </si>
+  <si>
+    <t>vw3VoiA4D0s</t>
+  </si>
+  <si>
+    <t>f5IPTM7mieH</t>
+  </si>
+  <si>
+    <t>NYAJ6QkEKbC</t>
+  </si>
+  <si>
+    <t>Uo2vBxak9im</t>
+  </si>
+  <si>
+    <t>lYTgCwEjUX6</t>
+  </si>
+  <si>
+    <t>RxyNwEV3oQf</t>
+  </si>
+  <si>
+    <t>AaCcy7dVfWw</t>
+  </si>
+  <si>
+    <t>cwZbCmUvjp7</t>
+  </si>
+  <si>
+    <t>BTIqHnjeG7l</t>
+  </si>
+  <si>
+    <t>Fvs28dwjL6e</t>
+  </si>
+  <si>
+    <t>gma5vVZgK49</t>
+  </si>
+  <si>
+    <t>Z6TU9Os82Yw</t>
+  </si>
+  <si>
+    <t>FfxbuFZVAM5</t>
+  </si>
+  <si>
+    <t>rI3JlpiuwEK</t>
+  </si>
+  <si>
+    <t>MvszPTQrUhy</t>
+  </si>
+  <si>
+    <t>udCop657yzi</t>
+  </si>
+  <si>
+    <t>bZOF8bon1dD</t>
+  </si>
+  <si>
+    <t>tOiM2uxcnkj</t>
+  </si>
+  <si>
+    <t>wdoUps1qb3V</t>
+  </si>
+  <si>
+    <t>hGUykTtC0Xm</t>
+  </si>
+  <si>
+    <t>fNQC7f36jre</t>
+  </si>
+  <si>
+    <t>KMhxXDjVseT</t>
+  </si>
+  <si>
+    <t>h0pvSVe1TYf</t>
+  </si>
+  <si>
+    <t>k2U2MDOywGj</t>
+  </si>
+  <si>
+    <t>Qbz6SrpmJ1y</t>
+  </si>
+  <si>
+    <t>CXO3RZgYCAY</t>
+  </si>
+  <si>
+    <t>pxz2gGSIQhG</t>
+  </si>
+  <si>
+    <t>Ua8iy6NgQks</t>
+  </si>
+  <si>
+    <t>iPfNX6Ylqp1</t>
+  </si>
+  <si>
+    <t>zzNslrLngKi</t>
+  </si>
+  <si>
+    <t>xds87opkbem</t>
+  </si>
+  <si>
+    <t>p6j1mfN4rjP</t>
+  </si>
+  <si>
+    <t>OoC9KSMqBms</t>
+  </si>
+  <si>
+    <t>oLVJbdHt6ou</t>
+  </si>
+  <si>
+    <t>UkvLXoUn0wG</t>
+  </si>
+  <si>
+    <t>jEpJPF6IVVB</t>
+  </si>
+  <si>
+    <t>z5IOTPUto8L</t>
+  </si>
+  <si>
+    <t>werJlVT6sf3</t>
+  </si>
+  <si>
+    <t>Lhk8mjk6Yk2</t>
+  </si>
+  <si>
+    <t>E3VaSq4JOzd</t>
+  </si>
+  <si>
+    <t>iFlQUEQcsfZ</t>
+  </si>
+  <si>
+    <t>dmPR3N6lKPJ</t>
+  </si>
+  <si>
+    <t>sdHeplyj1SL</t>
+  </si>
+  <si>
+    <t>kkfFCChSw4k</t>
+  </si>
+  <si>
+    <t>dcaYk7TXk4E</t>
+  </si>
+  <si>
+    <t>HlEDNiLt5hq</t>
+  </si>
+  <si>
+    <t>QEpxdKlM3zh</t>
+  </si>
+  <si>
+    <t>Qr9eyrVLHSg</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>DE_GROUP-zhdJiWlPvCz</t>
+  </si>
+  <si>
+    <t>2018Oct</t>
+  </si>
+  <si>
+    <t>&lt;15/&gt;15</t>
+  </si>
+  <si>
+    <t>GEND_GBV.N.ViolenceServiceType.T.physEmot</t>
+  </si>
+  <si>
+    <t>GEND_GBV.N.ViolenceServiceType.T.postRape</t>
+  </si>
+  <si>
+    <t>HTS_SELF.N.HIVSelfTest.T.Unassisted</t>
+  </si>
+  <si>
+    <t>KP_MAT.N.Sex.T</t>
+  </si>
+  <si>
+    <t>KP_PREV.N.KeyPop.T</t>
+  </si>
+  <si>
+    <t>OVC_HIVSTAT.N.total.T</t>
+  </si>
+  <si>
+    <t>PMTCT_EID.N.Age.T.2mo</t>
+  </si>
+  <si>
+    <t>PMTCT_EID.N.Age.T.2to12mo</t>
+  </si>
+  <si>
+    <t>PrEP_CURR.N.KeyPop.T</t>
+  </si>
+  <si>
+    <t>PrEP_NEW.N.KeyPop.T</t>
+  </si>
+  <si>
+    <t>HTS_INDEX_COM.N.Age_Sex_Result.T.NewNeg</t>
+  </si>
+  <si>
+    <t>HTS_INDEX_COM.N.Age_Sex_Result.T.NewPos</t>
+  </si>
+  <si>
+    <t>HTS_INDEX_FAC.N.Age_Sex_Result.T.NewNeg</t>
+  </si>
+  <si>
+    <t>HTS_INDEX_FAC.N.Age_Sex_Result.T.NewPos</t>
+  </si>
+  <si>
+    <t>HTS_SELF.N.Age_Sex_HIVSelfTest.T.Directly_Assisted</t>
+  </si>
+  <si>
+    <t>HTS_TST_EmergencyWard.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_EmergencyWard.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_Inpat.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_Inpat.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_Malnutrition.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_Malnutrition.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_MobileMod.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_MobileMod.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_OtherMod.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_OtherMod.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_OtherPITC.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_OtherPITC.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_Pediatric.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_Pediatric.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_PMTCTPostANC1.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_PMTCTPostANC1.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_STIClinic.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_STIClinic.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_VCT.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_VCT.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST_VCTMod.N.Age_Sex_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST_VCTMod.N.Age_Sex_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>HTS_TST.N.KeyPop_Result.T.Negative</t>
+  </si>
+  <si>
+    <t>HTS_TST.N.KeyPop_Result.T.Positive</t>
+  </si>
+  <si>
+    <t>OVC_SERV.N.Age_Sex_ProgramStatus.T.Active</t>
+  </si>
+  <si>
+    <t>OVC_SERV.N.Age_Sex_ProgramStatus.T.Graduated</t>
+  </si>
+  <si>
+    <t>PMTCT_ART.N.Age_NewExistingART_Sex_HIVStatus.T.Already</t>
+  </si>
+  <si>
+    <t>PMTCT_ART.N.Age_NewExistingART_Sex_HIVStatus.T.New</t>
+  </si>
+  <si>
+    <t>PMTCT_STAT.D.Age_Sex.T</t>
+  </si>
+  <si>
+    <t>PMTCT_STAT.N.Age_Sex_KnownNewResult.T.KnownPos</t>
+  </si>
+  <si>
+    <t>PMTCT_STAT.N.Age_Sex_KnownNewResult.T.NewNeg</t>
+  </si>
+  <si>
+    <t>PMTCT_STAT.N.Age_Sex_KnownNewResult.T.NewPos</t>
+  </si>
+  <si>
+    <t>PP_PREV.N.Age_Sex.T</t>
+  </si>
+  <si>
+    <t>PrEP_CURR.N.Age_Sex.T</t>
+  </si>
+  <si>
+    <t>PrEP_NEW.N.Age_Sex.T</t>
+  </si>
+  <si>
+    <t>TB_ART.N.Age_Sex_NewExistingART_HIVStatus.T.Already</t>
+  </si>
+  <si>
+    <t>TB_ART.N.Age_Sex_NewExistingART_HIVStatus.T.New</t>
+  </si>
+  <si>
+    <t>TB_PREV.D.Age_TherapyType_NewExistingArt_HIVStatus.T.IPTAlready</t>
+  </si>
+  <si>
+    <t>TB_PREV.D.Age_TherapyType_NewExistingArt_HIVStatus.T.IPTNew</t>
+  </si>
+  <si>
+    <t>TB_PREV.D.Age_TherapyType_NewExistingArt_HIVStatus.T.TPTAlready</t>
+  </si>
+  <si>
+    <t>TB_PREV.D.Age_TherapyType_NewExistingArt_HIVStatus.T.TPTNew</t>
+  </si>
+  <si>
+    <t>TB_PREV.N.Age_TherapyType_NewExistingArt_HIVStatus.T.IPTAlready</t>
+  </si>
+  <si>
+    <t>TB_PREV.N.Age_TherapyType_NewExistingArt_HIVStatus.T.IPTNew</t>
+  </si>
+  <si>
+    <t>TB_PREV.N.Age_TherapyType_NewExistingArt_HIVStatus.T.TPTAlready</t>
+  </si>
+  <si>
+    <t>TB_PREV.N.Age_TherapyType_NewExistingArt_HIVStatus.T.TPTNew</t>
+  </si>
+  <si>
+    <t>TB_STAT.D.Age_Sex.T</t>
+  </si>
+  <si>
+    <t>TB_STAT.N.Age_Sex_KnownNewPosNeg.T.KnownPos</t>
+  </si>
+  <si>
+    <t>TB_STAT.N.Age_Sex_KnownNewPosNeg.T.NewNeg</t>
+  </si>
+  <si>
+    <t>TB_STAT.N.Age_Sex_KnownNewPosNeg.T.NewPos</t>
+  </si>
+  <si>
+    <t>TX_CURR.N.Age_Sex_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>TX_NEW.N.Age_Sex_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>TX_NEW.N.KeyPop_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>TX_PVLS.D.Age_Sex_Indication_HIVStatus.T.Routine</t>
+  </si>
+  <si>
+    <t>TX_PVLS.N.Age_Sex_Indication_HIVStatus.T.Routine</t>
+  </si>
+  <si>
+    <t>TX_TB.D.Age_Sex_TBScreen_NewExistingART_HIVStatus.T.ScreenNegAlready</t>
+  </si>
+  <si>
+    <t>TX_TB.D.Age_Sex_TBScreen_NewExistingART_HIVStatus.T.ScreenNegNew</t>
+  </si>
+  <si>
+    <t>TX_TB.D.Age_Sex_TBScreen_NewExistingART_HIVStatus.T.ScreenPosAlready</t>
+  </si>
+  <si>
+    <t>TX_TB.D.Age_Sex_TBScreen_NewExistingART_HIVStatus.T.ScreenPosNew</t>
+  </si>
+  <si>
+    <t>VMMC_CIRC.N.Age_Sex_HIVStatus.T.Negative</t>
+  </si>
+  <si>
+    <t>VMMC_CIRC.N.Age_Sex_HIVStatus.T.Positive</t>
+  </si>
+  <si>
+    <t>VMMC_CIRC.N.Age_Sex_HIVStatus.T.Unknown</t>
+  </si>
+  <si>
     <t>indicatorCode_fy20_cop</t>
-  </si>
-  <si>
-    <t>Technical Area_fy20_cop</t>
-  </si>
-  <si>
-    <t>Numerator / Denominator_fy20_cop</t>
-  </si>
-  <si>
-    <t>Other_fy20_cop</t>
-  </si>
-  <si>
-    <t>other_disagg</t>
-  </si>
-  <si>
-    <t>disagg_type</t>
-  </si>
-  <si>
-    <t>Disagregation Type_fy20_cop</t>
-  </si>
-  <si>
-    <t>technical_area_uid</t>
-  </si>
-  <si>
-    <t>num_or_den_uid</t>
-  </si>
-  <si>
-    <t>disagg_type_uid</t>
-  </si>
-  <si>
-    <t>Som9NRMQqV7</t>
-  </si>
-  <si>
-    <t>QpNj0nSuEhD</t>
-  </si>
-  <si>
-    <t>vw3VoiA4D0s</t>
-  </si>
-  <si>
-    <t>f5IPTM7mieH</t>
-  </si>
-  <si>
-    <t>NYAJ6QkEKbC</t>
-  </si>
-  <si>
-    <t>Uo2vBxak9im</t>
-  </si>
-  <si>
-    <t>lYTgCwEjUX6</t>
-  </si>
-  <si>
-    <t>RxyNwEV3oQf</t>
-  </si>
-  <si>
-    <t>AaCcy7dVfWw</t>
-  </si>
-  <si>
-    <t>cwZbCmUvjp7</t>
-  </si>
-  <si>
-    <t>BTIqHnjeG7l</t>
-  </si>
-  <si>
-    <t>Fvs28dwjL6e</t>
-  </si>
-  <si>
-    <t>gma5vVZgK49</t>
-  </si>
-  <si>
-    <t>Z6TU9Os82Yw</t>
-  </si>
-  <si>
-    <t>FfxbuFZVAM5</t>
-  </si>
-  <si>
-    <t>rI3JlpiuwEK</t>
-  </si>
-  <si>
-    <t>MvszPTQrUhy</t>
-  </si>
-  <si>
-    <t>udCop657yzi</t>
-  </si>
-  <si>
-    <t>bZOF8bon1dD</t>
-  </si>
-  <si>
-    <t>tOiM2uxcnkj</t>
-  </si>
-  <si>
-    <t>wdoUps1qb3V</t>
-  </si>
-  <si>
-    <t>hGUykTtC0Xm</t>
-  </si>
-  <si>
-    <t>fNQC7f36jre</t>
-  </si>
-  <si>
-    <t>KMhxXDjVseT</t>
-  </si>
-  <si>
-    <t>h0pvSVe1TYf</t>
-  </si>
-  <si>
-    <t>k2U2MDOywGj</t>
-  </si>
-  <si>
-    <t>Qbz6SrpmJ1y</t>
-  </si>
-  <si>
-    <t>CXO3RZgYCAY</t>
-  </si>
-  <si>
-    <t>pxz2gGSIQhG</t>
-  </si>
-  <si>
-    <t>Ua8iy6NgQks</t>
-  </si>
-  <si>
-    <t>iPfNX6Ylqp1</t>
-  </si>
-  <si>
-    <t>zzNslrLngKi</t>
-  </si>
-  <si>
-    <t>xds87opkbem</t>
-  </si>
-  <si>
-    <t>p6j1mfN4rjP</t>
-  </si>
-  <si>
-    <t>OoC9KSMqBms</t>
-  </si>
-  <si>
-    <t>oLVJbdHt6ou</t>
-  </si>
-  <si>
-    <t>UkvLXoUn0wG</t>
-  </si>
-  <si>
-    <t>jEpJPF6IVVB</t>
-  </si>
-  <si>
-    <t>z5IOTPUto8L</t>
-  </si>
-  <si>
-    <t>werJlVT6sf3</t>
-  </si>
-  <si>
-    <t>Lhk8mjk6Yk2</t>
-  </si>
-  <si>
-    <t>E3VaSq4JOzd</t>
-  </si>
-  <si>
-    <t>iFlQUEQcsfZ</t>
-  </si>
-  <si>
-    <t>dmPR3N6lKPJ</t>
-  </si>
-  <si>
-    <t>sdHeplyj1SL</t>
-  </si>
-  <si>
-    <t>kkfFCChSw4k</t>
-  </si>
-  <si>
-    <t>dcaYk7TXk4E</t>
-  </si>
-  <si>
-    <t>HlEDNiLt5hq</t>
-  </si>
-  <si>
-    <t>QEpxdKlM3zh</t>
-  </si>
-  <si>
-    <t>Qr9eyrVLHSg</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>DE_GROUP-zhdJiWlPvCz</t>
-  </si>
-  <si>
-    <t>2018Oct</t>
-  </si>
-  <si>
-    <t>&lt;15/&gt;15</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2224,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2251,99 +2252,99 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
@@ -2355,51 +2356,51 @@
         <v>9</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>9</v>
@@ -2411,1619 +2412,1619 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>415</v>
+        <v>338</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>415</v>
+        <v>338</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>376</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>383</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>384</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>386</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>426</v>
+        <v>349</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>390</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>426</v>
+        <v>349</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>394</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>9</v>
@@ -4032,54 +4033,54 @@
         <v>9</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>9</v>
@@ -4088,60 +4089,60 @@
         <v>9</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>9</v>
@@ -4150,48 +4151,48 @@
         <v>9</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>9</v>
@@ -4200,54 +4201,54 @@
         <v>9</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>9</v>
@@ -4262,54 +4263,54 @@
         <v>9</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>401</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>9</v>
@@ -4318,54 +4319,54 @@
         <v>9</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>402</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>9</v>
@@ -4374,163 +4375,163 @@
         <v>9</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>403</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>404</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>9</v>
@@ -4542,51 +4543,51 @@
         <v>9</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>9</v>
@@ -4598,54 +4599,54 @@
         <v>9</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>103</v>
+        <v>405</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>9</v>
@@ -4654,222 +4655,222 @@
         <v>9</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>109</v>
+        <v>407</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>9</v>
@@ -4878,54 +4879,54 @@
         <v>9</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>410</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>9</v>
@@ -4934,48 +4935,48 @@
         <v>9</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>9</v>
@@ -4984,60 +4985,60 @@
         <v>9</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>411</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>9</v>
@@ -5046,48 +5047,48 @@
         <v>9</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>9</v>
@@ -5096,60 +5097,60 @@
         <v>9</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>9</v>
@@ -5158,54 +5159,54 @@
         <v>9</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>9</v>
@@ -5214,54 +5215,54 @@
         <v>9</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>9</v>
@@ -5270,54 +5271,54 @@
         <v>9</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>9</v>
@@ -5326,54 +5327,54 @@
         <v>9</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>9</v>
@@ -5382,54 +5383,54 @@
         <v>9</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>9</v>
@@ -5438,54 +5439,54 @@
         <v>9</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>9</v>
@@ -5494,54 +5495,54 @@
         <v>9</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>9</v>
@@ -5550,54 +5551,54 @@
         <v>9</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>9</v>
@@ -5606,54 +5607,54 @@
         <v>9</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>9</v>
@@ -5662,54 +5663,54 @@
         <v>9</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>9</v>
@@ -5718,54 +5719,54 @@
         <v>9</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>9</v>
@@ -5774,54 +5775,54 @@
         <v>9</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>9</v>
@@ -5830,54 +5831,54 @@
         <v>9</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>9</v>
@@ -5886,15 +5887,15 @@
         <v>9</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>143</v>
+        <v>426</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>7</v>
@@ -5906,34 +5907,34 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>400</v>
+        <v>323</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>9</v>
@@ -5942,15 +5943,15 @@
         <v>9</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>145</v>
+        <v>427</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
@@ -5962,34 +5963,34 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>9</v>
@@ -5998,48 +5999,48 @@
         <v>9</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>9</v>
@@ -6048,172 +6049,172 @@
         <v>9</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="Q68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>9</v>
@@ -6222,54 +6223,54 @@
         <v>9</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>9</v>
@@ -6278,54 +6279,54 @@
         <v>9</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>160</v>
+        <v>433</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>9</v>
@@ -6334,54 +6335,54 @@
         <v>9</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>162</v>
+        <v>434</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>9</v>
@@ -6390,15 +6391,15 @@
         <v>9</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>164</v>
+        <v>435</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>7</v>
@@ -6407,37 +6408,37 @@
         <v>8</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>9</v>
@@ -6446,15 +6447,15 @@
         <v>9</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>7</v>
@@ -6463,37 +6464,37 @@
         <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>9</v>
@@ -6502,15 +6503,15 @@
         <v>9</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>167</v>
+        <v>437</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>7</v>
@@ -6519,37 +6520,37 @@
         <v>8</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>404</v>
+        <v>327</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>9</v>
@@ -6558,7 +6559,7 @@
         <v>9</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6583,810 +6584,810 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q9" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="R9" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="P10" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q10" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="R10" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q11" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="R11" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="P12" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q12" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="R12" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="P13" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q13" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="R13" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="P14" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q14" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="R14" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="P15" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q15" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="R15" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="P16" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q16" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="R16" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="P17" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q17" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="R17" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="P18" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q18" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="R18" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q19" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="R19" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q20" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="R20" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="P21" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="R21" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q22" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="R22" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q23" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="R23" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="P24" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q24" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="R24" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q27" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="R27" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="P28" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q28" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="R28" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q29" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="R29" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="P30" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q30" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="R30" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q31" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="R31" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q32" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="R32" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q33" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="R33" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q34" t="s">
         <v>257</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="P34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>333</v>
-      </c>
       <c r="R34" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q35" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="R35" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q36" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="R36" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="P37" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="R37" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="P38" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q38" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="R38" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q39" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="R39" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="P40" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q40" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="R40" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q41" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="R41" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="Q42" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="R42" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="E74" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="G74" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="G75" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="G76" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7425,31 +7426,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="L1" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="N1" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="O1" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7482,19 +7483,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
@@ -7529,420 +7530,420 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD78BCF7-51E1-3D48-8822-722F8EEB1BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF270AA2-15E0-3E47-B4E3-CC419906039A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,9 +1113,6 @@
     <t>pe</t>
   </si>
   <si>
-    <t>DE_GROUP-zhdJiWlPvCz</t>
-  </si>
-  <si>
     <t>2018Oct</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>indicatorCode_fy20_cop</t>
+  </si>
+  <si>
+    <t>DE_GROUP-XUA8pDYjPsw</t>
   </si>
 </sst>
 </file>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2235,7 @@
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -2252,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>298</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2323,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
         <v>355</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>355</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>9</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>42</v>
@@ -2456,7 +2456,7 @@
         <v>339</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>137</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
@@ -2512,7 +2512,7 @@
         <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>137</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>42</v>
@@ -2568,7 +2568,7 @@
         <v>338</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>137</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -2603,7 +2603,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -2624,7 +2624,7 @@
         <v>338</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>137</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -2659,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>24</v>
@@ -2680,7 +2680,7 @@
         <v>334</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>135</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
@@ -2715,7 +2715,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
@@ -2736,7 +2736,7 @@
         <v>334</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>135</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
@@ -2771,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -2792,7 +2792,7 @@
         <v>337</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>137</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>42</v>
@@ -2848,7 +2848,7 @@
         <v>337</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>137</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -2883,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
@@ -2904,7 +2904,7 @@
         <v>340</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>137</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
@@ -2939,7 +2939,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -2960,7 +2960,7 @@
         <v>340</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>137</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>33</v>
@@ -2995,7 +2995,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>42</v>
@@ -3016,7 +3016,7 @@
         <v>344</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>139</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -3051,7 +3051,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>42</v>
@@ -3072,7 +3072,7 @@
         <v>344</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>139</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -3107,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>42</v>
@@ -3128,7 +3128,7 @@
         <v>356</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>137</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
@@ -3163,7 +3163,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
@@ -3184,7 +3184,7 @@
         <v>356</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>137</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>35</v>
@@ -3219,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>42</v>
@@ -3240,7 +3240,7 @@
         <v>347</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>137</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>35</v>
@@ -3275,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>42</v>
@@ -3296,7 +3296,7 @@
         <v>347</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>137</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -3331,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
@@ -3352,7 +3352,7 @@
         <v>348</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>137</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>42</v>
@@ -3408,7 +3408,7 @@
         <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>137</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
@@ -3443,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>42</v>
@@ -3464,7 +3464,7 @@
         <v>349</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>139</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
@@ -3499,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>42</v>
@@ -3520,7 +3520,7 @@
         <v>349</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>139</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
@@ -3555,7 +3555,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>42</v>
@@ -3576,7 +3576,7 @@
         <v>350</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>137</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
@@ -3611,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>42</v>
@@ -3632,7 +3632,7 @@
         <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>137</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -3667,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>42</v>
@@ -3688,7 +3688,7 @@
         <v>352</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>137</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3723,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>42</v>
@@ -3744,7 +3744,7 @@
         <v>352</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>137</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3779,7 +3779,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>42</v>
@@ -3800,7 +3800,7 @@
         <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>137</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>40</v>
@@ -3835,7 +3835,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
         <v>353</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>137</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>41</v>
@@ -3891,7 +3891,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>42</v>
@@ -3912,7 +3912,7 @@
         <v>354</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>137</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>41</v>
@@ -3947,7 +3947,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>42</v>
@@ -3968,7 +3968,7 @@
         <v>354</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>137</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
@@ -4003,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>42</v>
@@ -4024,7 +4024,7 @@
         <v>343</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>9</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
@@ -4059,7 +4059,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>42</v>
@@ -4080,7 +4080,7 @@
         <v>343</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>9</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -4115,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
@@ -4136,7 +4136,7 @@
         <v>351</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
@@ -4171,7 +4171,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>46</v>
@@ -4192,7 +4192,7 @@
         <v>341</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>9</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -4227,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>48</v>
@@ -4248,7 +4248,7 @@
         <v>346</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>9</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4283,7 +4283,7 @@
         <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>50</v>
@@ -4304,7 +4304,7 @@
         <v>333</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>277</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
@@ -4339,7 +4339,7 @@
         <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>50</v>
@@ -4360,7 +4360,7 @@
         <v>333</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>277</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>54</v>
@@ -4395,7 +4395,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>54</v>
@@ -4416,7 +4416,7 @@
         <v>345</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>9</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
@@ -4451,7 +4451,7 @@
         <v>57</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>54</v>
@@ -4472,7 +4472,7 @@
         <v>345</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>9</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>58</v>
@@ -4507,7 +4507,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>58</v>
@@ -4528,7 +4528,7 @@
         <v>329</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>145</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>58</v>
@@ -4563,7 +4563,7 @@
         <v>61</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>58</v>
@@ -4584,7 +4584,7 @@
         <v>329</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>146</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>62</v>
@@ -4619,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>62</v>
@@ -4640,7 +4640,7 @@
         <v>333</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>135</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>62</v>
@@ -4675,7 +4675,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>62</v>
@@ -4696,7 +4696,7 @@
         <v>336</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>135</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>62</v>
@@ -4731,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>62</v>
@@ -4752,7 +4752,7 @@
         <v>336</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>135</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
@@ -4787,7 +4787,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
@@ -4808,7 +4808,7 @@
         <v>336</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>135</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>66</v>
@@ -4843,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>66</v>
@@ -4864,7 +4864,7 @@
         <v>333</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>135</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>67</v>
@@ -4899,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>68</v>
@@ -4920,7 +4920,7 @@
         <v>333</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>148</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>67</v>
@@ -4955,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>68</v>
@@ -4976,7 +4976,7 @@
         <v>341</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>9</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>68</v>
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>68</v>
@@ -5032,7 +5032,7 @@
         <v>333</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>148</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>68</v>
@@ -5067,7 +5067,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>68</v>
@@ -5088,7 +5088,7 @@
         <v>341</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>9</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>69</v>
@@ -5123,7 +5123,7 @@
         <v>56</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>69</v>
@@ -5144,7 +5144,7 @@
         <v>331</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>284</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
@@ -5179,7 +5179,7 @@
         <v>57</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>69</v>
@@ -5200,7 +5200,7 @@
         <v>331</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>284</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>71</v>
@@ -5235,7 +5235,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>71</v>
@@ -5256,10 +5256,10 @@
         <v>331</v>
       </c>
       <c r="M54" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>136</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>71</v>
@@ -5291,7 +5291,7 @@
         <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>71</v>
@@ -5312,10 +5312,10 @@
         <v>331</v>
       </c>
       <c r="M55" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>136</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>71</v>
@@ -5347,7 +5347,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>71</v>
@@ -5368,10 +5368,10 @@
         <v>331</v>
       </c>
       <c r="M56" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N56" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>136</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>71</v>
@@ -5403,7 +5403,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>71</v>
@@ -5424,10 +5424,10 @@
         <v>331</v>
       </c>
       <c r="M57" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>136</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
@@ -5459,7 +5459,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>71</v>
@@ -5480,10 +5480,10 @@
         <v>331</v>
       </c>
       <c r="M58" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>136</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>71</v>
@@ -5515,7 +5515,7 @@
         <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>71</v>
@@ -5536,10 +5536,10 @@
         <v>331</v>
       </c>
       <c r="M59" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>136</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>71</v>
@@ -5571,7 +5571,7 @@
         <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>71</v>
@@ -5592,10 +5592,10 @@
         <v>331</v>
       </c>
       <c r="M60" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>136</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>71</v>
@@ -5627,7 +5627,7 @@
         <v>76</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>71</v>
@@ -5648,10 +5648,10 @@
         <v>331</v>
       </c>
       <c r="M61" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N61" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>136</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>77</v>
@@ -5683,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>77</v>
@@ -5704,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>284</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>77</v>
@@ -5739,7 +5739,7 @@
         <v>65</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>77</v>
@@ -5760,7 +5760,7 @@
         <v>330</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>284</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>77</v>
@@ -5795,7 +5795,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>77</v>
@@ -5816,7 +5816,7 @@
         <v>330</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>284</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>77</v>
@@ -5851,7 +5851,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>77</v>
@@ -5872,7 +5872,7 @@
         <v>330</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N65" s="4" t="s">
         <v>284</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -5907,7 +5907,7 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>79</v>
@@ -5928,7 +5928,7 @@
         <v>335</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>285</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>80</v>
@@ -5963,7 +5963,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>80</v>
@@ -5984,7 +5984,7 @@
         <v>335</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>285</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>80</v>
@@ -6019,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>80</v>
@@ -6040,7 +6040,7 @@
         <v>342</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>9</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -6075,7 +6075,7 @@
         <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>82</v>
@@ -6096,7 +6096,7 @@
         <v>332</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>284</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>82</v>
@@ -6131,7 +6131,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>82</v>
@@ -6152,7 +6152,7 @@
         <v>332</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>284</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>85</v>
@@ -6187,7 +6187,7 @@
         <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>85</v>
@@ -6208,10 +6208,10 @@
         <v>331</v>
       </c>
       <c r="M71" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>136</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>85</v>
@@ -6243,7 +6243,7 @@
         <v>88</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>85</v>
@@ -6264,10 +6264,10 @@
         <v>331</v>
       </c>
       <c r="M72" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>136</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>85</v>
@@ -6299,7 +6299,7 @@
         <v>89</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>85</v>
@@ -6320,10 +6320,10 @@
         <v>331</v>
       </c>
       <c r="M73" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>136</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>85</v>
@@ -6355,7 +6355,7 @@
         <v>90</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>85</v>
@@ -6376,10 +6376,10 @@
         <v>331</v>
       </c>
       <c r="M74" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N74" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>136</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>91</v>
@@ -6411,7 +6411,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>91</v>
@@ -6432,7 +6432,7 @@
         <v>333</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>135</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>91</v>
@@ -6467,7 +6467,7 @@
         <v>31</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>91</v>
@@ -6488,7 +6488,7 @@
         <v>333</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>135</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>91</v>
@@ -6523,7 +6523,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>91</v>
@@ -6544,7 +6544,7 @@
         <v>333</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>135</v>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF270AA2-15E0-3E47-B4E3-CC419906039A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9692DBF-18D3-D14A-A68F-7A89348D1358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,9 +1113,6 @@
     <t>pe</t>
   </si>
   <si>
-    <t>2018Oct</t>
-  </si>
-  <si>
     <t>&lt;15/&gt;15</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>DE_GROUP-XUA8pDYjPsw</t>
+  </si>
+  <si>
+    <t>2019Oct</t>
   </si>
 </sst>
 </file>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>298</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2323,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
         <v>355</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>355</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>9</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>42</v>
@@ -2456,7 +2456,7 @@
         <v>339</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>137</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
@@ -2512,7 +2512,7 @@
         <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>137</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>42</v>
@@ -2568,7 +2568,7 @@
         <v>338</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>137</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -2603,7 +2603,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -2624,7 +2624,7 @@
         <v>338</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>137</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -2659,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>24</v>
@@ -2680,7 +2680,7 @@
         <v>334</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>135</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
@@ -2715,7 +2715,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
@@ -2736,7 +2736,7 @@
         <v>334</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>135</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
@@ -2771,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -2792,7 +2792,7 @@
         <v>337</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>137</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>42</v>
@@ -2848,7 +2848,7 @@
         <v>337</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>137</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -2883,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
@@ -2904,7 +2904,7 @@
         <v>340</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>137</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
@@ -2939,7 +2939,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -2960,7 +2960,7 @@
         <v>340</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>137</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>33</v>
@@ -2995,7 +2995,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>42</v>
@@ -3016,7 +3016,7 @@
         <v>344</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>139</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -3051,7 +3051,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>42</v>
@@ -3072,7 +3072,7 @@
         <v>344</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>139</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -3107,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>42</v>
@@ -3128,7 +3128,7 @@
         <v>356</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>137</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
@@ -3163,7 +3163,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
@@ -3184,7 +3184,7 @@
         <v>356</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>137</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>35</v>
@@ -3219,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>42</v>
@@ -3240,7 +3240,7 @@
         <v>347</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>137</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>35</v>
@@ -3275,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>42</v>
@@ -3296,7 +3296,7 @@
         <v>347</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>137</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -3331,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
@@ -3352,7 +3352,7 @@
         <v>348</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>137</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>42</v>
@@ -3408,7 +3408,7 @@
         <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>137</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
@@ -3443,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>42</v>
@@ -3464,7 +3464,7 @@
         <v>349</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>139</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
@@ -3499,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>42</v>
@@ -3520,7 +3520,7 @@
         <v>349</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>139</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
@@ -3555,7 +3555,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>42</v>
@@ -3576,7 +3576,7 @@
         <v>350</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>137</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
@@ -3611,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>42</v>
@@ -3632,7 +3632,7 @@
         <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>137</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -3667,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>42</v>
@@ -3688,7 +3688,7 @@
         <v>352</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>137</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3723,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>42</v>
@@ -3744,7 +3744,7 @@
         <v>352</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>137</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3779,7 +3779,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>42</v>
@@ -3800,7 +3800,7 @@
         <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>137</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>40</v>
@@ -3835,7 +3835,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
         <v>353</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>137</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>41</v>
@@ -3891,7 +3891,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>42</v>
@@ -3912,7 +3912,7 @@
         <v>354</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>137</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>41</v>
@@ -3947,7 +3947,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>42</v>
@@ -3968,7 +3968,7 @@
         <v>354</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>137</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
@@ -4003,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>42</v>
@@ -4024,7 +4024,7 @@
         <v>343</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>9</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
@@ -4059,7 +4059,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>42</v>
@@ -4080,7 +4080,7 @@
         <v>343</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>9</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -4115,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
@@ -4136,7 +4136,7 @@
         <v>351</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
@@ -4171,7 +4171,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>46</v>
@@ -4192,7 +4192,7 @@
         <v>341</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>9</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -4227,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>48</v>
@@ -4248,7 +4248,7 @@
         <v>346</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>9</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4283,7 +4283,7 @@
         <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>50</v>
@@ -4304,7 +4304,7 @@
         <v>333</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>277</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
@@ -4339,7 +4339,7 @@
         <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>50</v>
@@ -4360,7 +4360,7 @@
         <v>333</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>277</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>54</v>
@@ -4395,7 +4395,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>54</v>
@@ -4416,7 +4416,7 @@
         <v>345</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>9</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
@@ -4451,7 +4451,7 @@
         <v>57</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>54</v>
@@ -4472,7 +4472,7 @@
         <v>345</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>9</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>58</v>
@@ -4507,7 +4507,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>58</v>
@@ -4528,7 +4528,7 @@
         <v>329</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>145</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>58</v>
@@ -4563,7 +4563,7 @@
         <v>61</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>58</v>
@@ -4584,7 +4584,7 @@
         <v>329</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>146</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>62</v>
@@ -4619,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>62</v>
@@ -4640,7 +4640,7 @@
         <v>333</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>135</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>62</v>
@@ -4675,7 +4675,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>62</v>
@@ -4696,7 +4696,7 @@
         <v>336</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>135</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>62</v>
@@ -4731,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>62</v>
@@ -4752,7 +4752,7 @@
         <v>336</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>135</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
@@ -4787,7 +4787,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
@@ -4808,7 +4808,7 @@
         <v>336</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>135</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>66</v>
@@ -4843,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>66</v>
@@ -4864,7 +4864,7 @@
         <v>333</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>135</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>67</v>
@@ -4899,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>68</v>
@@ -4920,7 +4920,7 @@
         <v>333</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>148</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>67</v>
@@ -4955,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>68</v>
@@ -4976,7 +4976,7 @@
         <v>341</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>9</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>68</v>
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>68</v>
@@ -5032,7 +5032,7 @@
         <v>333</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>148</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>68</v>
@@ -5067,7 +5067,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>68</v>
@@ -5088,7 +5088,7 @@
         <v>341</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>9</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>69</v>
@@ -5123,7 +5123,7 @@
         <v>56</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>69</v>
@@ -5144,7 +5144,7 @@
         <v>331</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>284</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
@@ -5179,7 +5179,7 @@
         <v>57</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>69</v>
@@ -5200,7 +5200,7 @@
         <v>331</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>284</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>71</v>
@@ -5235,7 +5235,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>71</v>
@@ -5256,10 +5256,10 @@
         <v>331</v>
       </c>
       <c r="M54" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>136</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>71</v>
@@ -5291,7 +5291,7 @@
         <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>71</v>
@@ -5312,10 +5312,10 @@
         <v>331</v>
       </c>
       <c r="M55" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N55" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>136</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>71</v>
@@ -5347,7 +5347,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>71</v>
@@ -5368,10 +5368,10 @@
         <v>331</v>
       </c>
       <c r="M56" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N56" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>136</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>71</v>
@@ -5403,7 +5403,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>71</v>
@@ -5424,10 +5424,10 @@
         <v>331</v>
       </c>
       <c r="M57" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>136</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
@@ -5459,7 +5459,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>71</v>
@@ -5480,10 +5480,10 @@
         <v>331</v>
       </c>
       <c r="M58" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>136</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>71</v>
@@ -5515,7 +5515,7 @@
         <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>71</v>
@@ -5536,10 +5536,10 @@
         <v>331</v>
       </c>
       <c r="M59" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>136</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>71</v>
@@ -5571,7 +5571,7 @@
         <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>71</v>
@@ -5592,10 +5592,10 @@
         <v>331</v>
       </c>
       <c r="M60" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>136</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>71</v>
@@ -5627,7 +5627,7 @@
         <v>76</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>71</v>
@@ -5648,10 +5648,10 @@
         <v>331</v>
       </c>
       <c r="M61" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N61" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>136</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>77</v>
@@ -5683,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>77</v>
@@ -5704,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>284</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>77</v>
@@ -5739,7 +5739,7 @@
         <v>65</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>77</v>
@@ -5760,7 +5760,7 @@
         <v>330</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>284</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>77</v>
@@ -5795,7 +5795,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>77</v>
@@ -5816,7 +5816,7 @@
         <v>330</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>284</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>77</v>
@@ -5851,7 +5851,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>77</v>
@@ -5872,7 +5872,7 @@
         <v>330</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N65" s="4" t="s">
         <v>284</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -5907,7 +5907,7 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>79</v>
@@ -5928,7 +5928,7 @@
         <v>335</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>285</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>80</v>
@@ -5963,7 +5963,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>80</v>
@@ -5984,7 +5984,7 @@
         <v>335</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>285</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>80</v>
@@ -6019,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>80</v>
@@ -6040,7 +6040,7 @@
         <v>342</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>9</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -6075,7 +6075,7 @@
         <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>82</v>
@@ -6096,7 +6096,7 @@
         <v>332</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>284</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>82</v>
@@ -6131,7 +6131,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>82</v>
@@ -6152,7 +6152,7 @@
         <v>332</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>284</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>85</v>
@@ -6187,7 +6187,7 @@
         <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>85</v>
@@ -6208,10 +6208,10 @@
         <v>331</v>
       </c>
       <c r="M71" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>136</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>85</v>
@@ -6243,7 +6243,7 @@
         <v>88</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>85</v>
@@ -6264,10 +6264,10 @@
         <v>331</v>
       </c>
       <c r="M72" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>136</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>85</v>
@@ -6299,7 +6299,7 @@
         <v>89</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>85</v>
@@ -6320,10 +6320,10 @@
         <v>331</v>
       </c>
       <c r="M73" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>136</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>85</v>
@@ -6355,7 +6355,7 @@
         <v>90</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>85</v>
@@ -6376,10 +6376,10 @@
         <v>331</v>
       </c>
       <c r="M74" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>136</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>91</v>
@@ -6411,7 +6411,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>91</v>
@@ -6432,7 +6432,7 @@
         <v>333</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>135</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>91</v>
@@ -6467,7 +6467,7 @@
         <v>31</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>91</v>
@@ -6488,7 +6488,7 @@
         <v>333</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>135</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>91</v>
@@ -6523,7 +6523,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>91</v>
@@ -6544,7 +6544,7 @@
         <v>333</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>135</v>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9692DBF-18D3-D14A-A68F-7A89348D1358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFDF73C7-49C1-8146-83C6-BCDA5B39A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="2080" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -1119,9 +1119,6 @@
     <t>GEND_GBV.N.ViolenceServiceType.T.physEmot</t>
   </si>
   <si>
-    <t>GEND_GBV.N.ViolenceServiceType.T.postRape</t>
-  </si>
-  <si>
     <t>HTS_SELF.N.HIVSelfTest.T.Unassisted</t>
   </si>
   <si>
@@ -1351,6 +1348,9 @@
   </si>
   <si>
     <t>2019Oct</t>
+  </si>
+  <si>
+    <t>GEND_GBV.N.ViolenceServiceType.T.Sexual</t>
   </si>
 </sst>
 </file>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>298</v>
@@ -2323,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
         <v>355</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>361</v>
+        <v>438</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>355</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>9</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>42</v>
@@ -2456,7 +2456,7 @@
         <v>339</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>137</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>42</v>
@@ -2512,7 +2512,7 @@
         <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>137</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>42</v>
@@ -2568,7 +2568,7 @@
         <v>338</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>137</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -2603,7 +2603,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>42</v>
@@ -2624,7 +2624,7 @@
         <v>338</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>137</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -2659,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>24</v>
@@ -2680,7 +2680,7 @@
         <v>334</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>135</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
@@ -2715,7 +2715,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>24</v>
@@ -2736,7 +2736,7 @@
         <v>334</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>135</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
@@ -2771,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
@@ -2792,7 +2792,7 @@
         <v>337</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>137</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>42</v>
@@ -2848,7 +2848,7 @@
         <v>337</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>137</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -2883,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>42</v>
@@ -2904,7 +2904,7 @@
         <v>340</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>137</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
@@ -2939,7 +2939,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -2960,7 +2960,7 @@
         <v>340</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>137</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>33</v>
@@ -2995,7 +2995,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>42</v>
@@ -3016,7 +3016,7 @@
         <v>344</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>139</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -3051,7 +3051,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>42</v>
@@ -3072,7 +3072,7 @@
         <v>344</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>139</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -3107,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>42</v>
@@ -3128,7 +3128,7 @@
         <v>356</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>137</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
@@ -3163,7 +3163,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
@@ -3184,7 +3184,7 @@
         <v>356</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>137</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>35</v>
@@ -3219,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>42</v>
@@ -3240,7 +3240,7 @@
         <v>347</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>137</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>35</v>
@@ -3275,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>42</v>
@@ -3296,7 +3296,7 @@
         <v>347</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>137</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -3331,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>42</v>
@@ -3352,7 +3352,7 @@
         <v>348</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>137</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>42</v>
@@ -3408,7 +3408,7 @@
         <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>137</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
@@ -3443,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>42</v>
@@ -3464,7 +3464,7 @@
         <v>349</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>139</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
@@ -3499,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>42</v>
@@ -3520,7 +3520,7 @@
         <v>349</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>139</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
@@ -3555,7 +3555,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>42</v>
@@ -3576,7 +3576,7 @@
         <v>350</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>137</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
@@ -3611,7 +3611,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>42</v>
@@ -3632,7 +3632,7 @@
         <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>137</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -3667,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>42</v>
@@ -3688,7 +3688,7 @@
         <v>352</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>137</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3723,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>42</v>
@@ -3744,7 +3744,7 @@
         <v>352</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>137</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3779,7 +3779,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>42</v>
@@ -3800,7 +3800,7 @@
         <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>137</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>40</v>
@@ -3835,7 +3835,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
         <v>353</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>137</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>41</v>
@@ -3891,7 +3891,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>42</v>
@@ -3912,7 +3912,7 @@
         <v>354</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>137</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>41</v>
@@ -3947,7 +3947,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>42</v>
@@ -3968,7 +3968,7 @@
         <v>354</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>137</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
@@ -4003,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>42</v>
@@ -4024,7 +4024,7 @@
         <v>343</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>9</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
@@ -4059,7 +4059,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>42</v>
@@ -4080,7 +4080,7 @@
         <v>343</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>9</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -4115,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
@@ -4136,7 +4136,7 @@
         <v>351</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
@@ -4171,7 +4171,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>46</v>
@@ -4192,7 +4192,7 @@
         <v>341</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>9</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -4227,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>48</v>
@@ -4248,7 +4248,7 @@
         <v>346</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>9</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4283,7 +4283,7 @@
         <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>50</v>
@@ -4304,7 +4304,7 @@
         <v>333</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>277</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
@@ -4339,7 +4339,7 @@
         <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>50</v>
@@ -4360,7 +4360,7 @@
         <v>333</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>277</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>54</v>
@@ -4395,7 +4395,7 @@
         <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>54</v>
@@ -4416,7 +4416,7 @@
         <v>345</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>9</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
@@ -4451,7 +4451,7 @@
         <v>57</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>54</v>
@@ -4472,7 +4472,7 @@
         <v>345</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>9</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>58</v>
@@ -4507,7 +4507,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>58</v>
@@ -4528,7 +4528,7 @@
         <v>329</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>145</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>58</v>
@@ -4563,7 +4563,7 @@
         <v>61</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>58</v>
@@ -4584,7 +4584,7 @@
         <v>329</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>146</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>62</v>
@@ -4619,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>62</v>
@@ -4640,7 +4640,7 @@
         <v>333</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>135</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>62</v>
@@ -4675,7 +4675,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>62</v>
@@ -4696,7 +4696,7 @@
         <v>336</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>135</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>62</v>
@@ -4731,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>62</v>
@@ -4752,7 +4752,7 @@
         <v>336</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>135</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
@@ -4787,7 +4787,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>62</v>
@@ -4808,7 +4808,7 @@
         <v>336</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>135</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>66</v>
@@ -4843,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>66</v>
@@ -4864,7 +4864,7 @@
         <v>333</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>135</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>67</v>
@@ -4899,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>68</v>
@@ -4920,7 +4920,7 @@
         <v>333</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>148</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>67</v>
@@ -4955,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>68</v>
@@ -4976,7 +4976,7 @@
         <v>341</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>9</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>68</v>
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>68</v>
@@ -5032,7 +5032,7 @@
         <v>333</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>148</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>68</v>
@@ -5067,7 +5067,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>68</v>
@@ -5088,7 +5088,7 @@
         <v>341</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>9</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>69</v>
@@ -5123,7 +5123,7 @@
         <v>56</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>69</v>
@@ -5144,7 +5144,7 @@
         <v>331</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>284</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
@@ -5179,7 +5179,7 @@
         <v>57</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>69</v>
@@ -5200,7 +5200,7 @@
         <v>331</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>284</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>71</v>
@@ -5235,7 +5235,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>71</v>
@@ -5256,7 +5256,7 @@
         <v>331</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>359</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>71</v>
@@ -5291,7 +5291,7 @@
         <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>71</v>
@@ -5312,7 +5312,7 @@
         <v>331</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>359</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>71</v>
@@ -5347,7 +5347,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>71</v>
@@ -5368,7 +5368,7 @@
         <v>331</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>359</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>71</v>
@@ -5403,7 +5403,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>71</v>
@@ -5424,7 +5424,7 @@
         <v>331</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>359</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
@@ -5459,7 +5459,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>71</v>
@@ -5480,7 +5480,7 @@
         <v>331</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>359</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>71</v>
@@ -5515,7 +5515,7 @@
         <v>74</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>71</v>
@@ -5536,7 +5536,7 @@
         <v>331</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>359</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>71</v>
@@ -5571,7 +5571,7 @@
         <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>71</v>
@@ -5592,7 +5592,7 @@
         <v>331</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>359</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>71</v>
@@ -5627,7 +5627,7 @@
         <v>76</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>71</v>
@@ -5648,7 +5648,7 @@
         <v>331</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>359</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>77</v>
@@ -5683,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>77</v>
@@ -5704,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>284</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>77</v>
@@ -5739,7 +5739,7 @@
         <v>65</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>77</v>
@@ -5760,7 +5760,7 @@
         <v>330</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>284</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>77</v>
@@ -5795,7 +5795,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>77</v>
@@ -5816,7 +5816,7 @@
         <v>330</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>284</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>77</v>
@@ -5851,7 +5851,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>77</v>
@@ -5872,7 +5872,7 @@
         <v>330</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N65" s="4" t="s">
         <v>284</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -5907,7 +5907,7 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>79</v>
@@ -5928,7 +5928,7 @@
         <v>335</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>285</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>80</v>
@@ -5963,7 +5963,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>80</v>
@@ -5984,7 +5984,7 @@
         <v>335</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>285</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>80</v>
@@ -6019,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>80</v>
@@ -6040,7 +6040,7 @@
         <v>342</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>9</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -6075,7 +6075,7 @@
         <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>82</v>
@@ -6096,7 +6096,7 @@
         <v>332</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>284</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>82</v>
@@ -6131,7 +6131,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>82</v>
@@ -6152,7 +6152,7 @@
         <v>332</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>284</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>85</v>
@@ -6187,7 +6187,7 @@
         <v>87</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>85</v>
@@ -6208,7 +6208,7 @@
         <v>331</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>359</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>85</v>
@@ -6243,7 +6243,7 @@
         <v>88</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>85</v>
@@ -6264,7 +6264,7 @@
         <v>331</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>359</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>85</v>
@@ -6299,7 +6299,7 @@
         <v>89</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>85</v>
@@ -6320,7 +6320,7 @@
         <v>331</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>359</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>85</v>
@@ -6355,7 +6355,7 @@
         <v>90</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>85</v>
@@ -6376,7 +6376,7 @@
         <v>331</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>359</v>
@@ -6396,7 +6396,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>91</v>
@@ -6411,7 +6411,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>91</v>
@@ -6432,7 +6432,7 @@
         <v>333</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>135</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>91</v>
@@ -6467,7 +6467,7 @@
         <v>31</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>91</v>
@@ -6488,7 +6488,7 @@
         <v>333</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>135</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>91</v>
@@ -6523,7 +6523,7 @@
         <v>92</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>91</v>
@@ -6544,7 +6544,7 @@
         <v>333</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>135</v>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFDF73C7-49C1-8146-83C6-BCDA5B39A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F2CFD415-333F-FF41-B91B-2CEFF873AF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2080" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1750" uniqueCount="439">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1732" uniqueCount="434">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -114,15 +114,9 @@
     <t>Age/Sex/HIVSelfTest</t>
   </si>
   <si>
-    <t>Directly_Assisted</t>
-  </si>
-  <si>
     <t>HIVSelfTest</t>
   </si>
   <si>
-    <t>Unassisted</t>
-  </si>
-  <si>
     <t>HTS_TST_EmergencyWard</t>
   </si>
   <si>
@@ -492,12 +486,6 @@
     <t>https://www.datim.org/api/dimensions?fields=name,items[name]</t>
   </si>
   <si>
-    <t>st_da</t>
-  </si>
-  <si>
-    <t>st_ua</t>
-  </si>
-  <si>
     <t>https://www.datim.org/api/dataSets?filter=name:ilike:targets&amp;filter=name:ilike:2019&amp;filter=name:ilike:facility&amp;filter=name:!like:DoD&amp;fields=dataSetElements[dataElement[name,id],categoryCombo[name,id,categoryOptionCombos[name,id]]]</t>
   </si>
   <si>
@@ -1119,9 +1107,6 @@
     <t>GEND_GBV.N.ViolenceServiceType.T.physEmot</t>
   </si>
   <si>
-    <t>HTS_SELF.N.HIVSelfTest.T.Unassisted</t>
-  </si>
-  <si>
     <t>KP_MAT.N.Sex.T</t>
   </si>
   <si>
@@ -1155,9 +1140,6 @@
     <t>HTS_INDEX_FAC.N.Age_Sex_Result.T.NewPos</t>
   </si>
   <si>
-    <t>HTS_SELF.N.Age_Sex_HIVSelfTest.T.Directly_Assisted</t>
-  </si>
-  <si>
     <t>HTS_TST_EmergencyWard.N.Age_Sex_Result.T.Negative</t>
   </si>
   <si>
@@ -1351,6 +1333,9 @@
   </si>
   <si>
     <t>GEND_GBV.N.ViolenceServiceType.T.Sexual</t>
+  </si>
+  <si>
+    <t>HTS_SELF.N.Age_Sex_HIVSelfTest.T</t>
   </si>
 </sst>
 </file>
@@ -2222,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2252,63 +2237,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2323,28 +2308,28 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>9</v>
@@ -2356,15 +2341,15 @@
         <v>9</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -2379,28 +2364,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>9</v>
@@ -2412,15 +2397,15 @@
         <v>9</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -2435,48 +2420,48 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2491,48 +2476,48 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -2547,48 +2532,48 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -2603,48 +2588,48 @@
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -2653,90 +2638,90 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>135</v>
@@ -2748,18 +2733,18 @@
         <v>9</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -2768,54 +2753,54 @@
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -2824,54 +2809,54 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -2880,54 +2865,54 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -2936,31 +2921,31 @@
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>340</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>137</v>
@@ -2972,18 +2957,18 @@
         <v>9</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -2992,54 +2977,54 @@
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -3048,54 +3033,54 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -3104,54 +3089,54 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -3160,54 +3145,54 @@
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
@@ -3216,54 +3201,54 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -3272,54 +3257,54 @@
         <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -3328,54 +3313,54 @@
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
@@ -3384,31 +3369,31 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>137</v>
@@ -3420,18 +3405,18 @@
         <v>9</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -3440,54 +3425,54 @@
         <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
@@ -3496,54 +3481,54 @@
         <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -3552,54 +3537,54 @@
         <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -3608,54 +3593,54 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -3664,54 +3649,54 @@
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
@@ -3720,54 +3705,54 @@
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
@@ -3776,54 +3761,54 @@
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>
@@ -3832,54 +3817,54 @@
         <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
@@ -3888,143 +3873,143 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>9</v>
@@ -4033,18 +4018,18 @@
         <v>9</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
@@ -4056,51 +4041,51 @@
         <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -4115,48 +4100,48 @@
         <v>9</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
@@ -4171,28 +4156,28 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>9</v>
@@ -4201,18 +4186,18 @@
         <v>9</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
@@ -4224,37 +4209,37 @@
         <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>9</v>
@@ -4263,54 +4248,54 @@
         <v>9</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>9</v>
@@ -4319,219 +4304,219 @@
         <v>9</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="L40" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>9</v>
@@ -4543,54 +4528,54 @@
         <v>9</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>329</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>9</v>
@@ -4599,278 +4584,278 @@
         <v>9</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="L44" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="L45" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>9</v>
@@ -4879,278 +4864,278 @@
         <v>9</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>9</v>
@@ -5159,54 +5144,54 @@
         <v>9</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>9</v>
@@ -5215,54 +5200,54 @@
         <v>9</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>9</v>
@@ -5271,54 +5256,54 @@
         <v>9</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>9</v>
@@ -5327,54 +5312,54 @@
         <v>9</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>9</v>
@@ -5383,54 +5368,54 @@
         <v>9</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>9</v>
@@ -5439,54 +5424,54 @@
         <v>9</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>9</v>
@@ -5495,54 +5480,54 @@
         <v>9</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>9</v>
@@ -5551,54 +5536,54 @@
         <v>9</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>9</v>
@@ -5607,54 +5592,54 @@
         <v>9</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>9</v>
@@ -5663,54 +5648,54 @@
         <v>9</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>9</v>
@@ -5719,54 +5704,54 @@
         <v>9</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>9</v>
@@ -5775,54 +5760,54 @@
         <v>9</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>9</v>
@@ -5831,12 +5816,12 @@
         <v>9</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>77</v>
@@ -5845,37 +5830,37 @@
         <v>7</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>136</v>
@@ -5887,15 +5872,15 @@
         <v>9</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>7</v>
@@ -5907,34 +5892,34 @@
         <v>9</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>9</v>
@@ -5943,278 +5928,278 @@
         <v>9</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="Q67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>9</v>
@@ -6223,54 +6208,54 @@
         <v>9</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>9</v>
@@ -6279,54 +6264,54 @@
         <v>9</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>9</v>
@@ -6335,54 +6320,54 @@
         <v>9</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="N74" s="4" t="s">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>9</v>
@@ -6391,15 +6376,15 @@
         <v>9</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>7</v>
@@ -6408,37 +6393,37 @@
         <v>8</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>9</v>
@@ -6447,15 +6432,15 @@
         <v>9</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>7</v>
@@ -6464,37 +6449,37 @@
         <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>9</v>
@@ -6503,68 +6488,12 @@
         <v>9</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R77" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R78">
-    <sortCondition ref="A2:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R77">
+    <sortCondition ref="A2:A77"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6584,810 +6513,810 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>206</v>
+      </c>
+      <c r="R9" t="s">
         <v>207</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="P9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>210</v>
-      </c>
-      <c r="R9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>209</v>
+      </c>
+      <c r="R10" t="s">
         <v>207</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>213</v>
-      </c>
-      <c r="R10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>211</v>
+      </c>
+      <c r="R11" t="s">
         <v>207</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>215</v>
-      </c>
-      <c r="R11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" t="s">
         <v>207</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>217</v>
-      </c>
-      <c r="R12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>215</v>
+      </c>
+      <c r="R13" t="s">
         <v>207</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P13" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>219</v>
-      </c>
-      <c r="R13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>217</v>
+      </c>
+      <c r="R14" t="s">
         <v>207</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P14" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>221</v>
-      </c>
-      <c r="R14" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>219</v>
+      </c>
+      <c r="R15" t="s">
         <v>207</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P15" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>223</v>
-      </c>
-      <c r="R15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R16" t="s">
         <v>207</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>225</v>
-      </c>
-      <c r="R16" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>223</v>
+      </c>
+      <c r="R17" t="s">
         <v>207</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P17" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>227</v>
-      </c>
-      <c r="R17" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P18" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" t="s">
         <v>207</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P18" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>227</v>
+      </c>
+      <c r="R19" t="s">
         <v>207</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="P19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>231</v>
-      </c>
-      <c r="R19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>229</v>
+      </c>
+      <c r="R20" t="s">
         <v>207</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>233</v>
-      </c>
-      <c r="R20" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>231</v>
+      </c>
+      <c r="R21" t="s">
         <v>207</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P21" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>235</v>
-      </c>
-      <c r="R21" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>233</v>
+      </c>
+      <c r="R22" t="s">
         <v>207</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="P22" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>237</v>
-      </c>
-      <c r="R22" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>235</v>
+      </c>
+      <c r="R23" t="s">
         <v>207</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="P23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>239</v>
-      </c>
-      <c r="R23" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>237</v>
+      </c>
+      <c r="R24" t="s">
         <v>207</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P24" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>241</v>
-      </c>
-      <c r="R24" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>239</v>
+      </c>
+      <c r="R27" t="s">
         <v>207</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P27" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>243</v>
-      </c>
-      <c r="R27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>241</v>
+      </c>
+      <c r="R28" t="s">
         <v>207</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>245</v>
-      </c>
-      <c r="R28" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>243</v>
+      </c>
+      <c r="R29" t="s">
         <v>207</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P29" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>247</v>
-      </c>
-      <c r="R29" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>245</v>
+      </c>
+      <c r="R30" t="s">
         <v>207</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="P30" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>249</v>
-      </c>
-      <c r="R30" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>247</v>
+      </c>
+      <c r="R31" t="s">
         <v>207</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P31" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>251</v>
-      </c>
-      <c r="R31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>249</v>
+      </c>
+      <c r="R32" t="s">
         <v>207</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P32" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>253</v>
-      </c>
-      <c r="R32" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>251</v>
+      </c>
+      <c r="R33" t="s">
         <v>207</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P33" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>255</v>
-      </c>
-      <c r="R33" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>253</v>
+      </c>
+      <c r="R34" t="s">
         <v>207</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="P34" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>257</v>
-      </c>
-      <c r="R34" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>255</v>
+      </c>
+      <c r="R35" t="s">
         <v>207</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="P35" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>259</v>
-      </c>
-      <c r="R35" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>257</v>
+      </c>
+      <c r="R36" t="s">
         <v>207</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="P36" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>261</v>
-      </c>
-      <c r="R36" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>259</v>
+      </c>
+      <c r="R37" t="s">
         <v>207</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="P37" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>263</v>
-      </c>
-      <c r="R37" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>261</v>
+      </c>
+      <c r="R38" t="s">
         <v>207</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P38" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>265</v>
-      </c>
-      <c r="R38" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P39" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>263</v>
+      </c>
+      <c r="R39" t="s">
         <v>207</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P39" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>267</v>
-      </c>
-      <c r="R39" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P40" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>265</v>
+      </c>
+      <c r="R40" t="s">
         <v>207</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="P40" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>269</v>
-      </c>
-      <c r="R40" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P41" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>267</v>
+      </c>
+      <c r="R41" t="s">
         <v>207</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="P41" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>271</v>
-      </c>
-      <c r="R41" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>269</v>
+      </c>
+      <c r="R42" t="s">
         <v>207</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="P42" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>273</v>
-      </c>
-      <c r="R42" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G74" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -7426,31 +7355,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" t="s">
-        <v>134</v>
-      </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7533,10 +7462,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7544,10 +7473,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7555,10 +7484,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7566,10 +7495,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7577,10 +7506,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7588,362 +7517,362 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
         <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CB5D05AF-F279-E348-91EE-59B67A74759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3284D445-1992-2848-B6F3-750096D0D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="428">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="426">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Age Aggregated/Sex/Indication/HIVStatus</t>
   </si>
   <si>
-    <t>Age Aggregated/Sex</t>
-  </si>
-  <si>
     <t>MobileMod/Age/Sex/Result</t>
   </si>
   <si>
@@ -987,9 +984,6 @@
   </si>
   <si>
     <t>fNQC7f36jre</t>
-  </si>
-  <si>
-    <t>KMhxXDjVseT</t>
   </si>
   <si>
     <t>h0pvSVe1TYf</t>
@@ -1326,7 +1320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1466,6 +1460,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1842,7 +1842,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1851,6 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2208,8 +2209,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R60" sqref="A57:R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2236,63 +2237,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -2307,28 +2308,28 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>9</v>
@@ -2340,15 +2341,15 @@
         <v>9</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -2363,28 +2364,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>9</v>
@@ -2396,15 +2397,15 @@
         <v>9</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -2419,48 +2420,48 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2475,48 +2476,48 @@
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2531,48 +2532,48 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
@@ -2587,48 +2588,48 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
@@ -2643,35 +2644,35 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="P8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2679,12 +2680,12 @@
         <v>9</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
@@ -2699,48 +2700,48 @@
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>27</v>
@@ -2755,48 +2756,48 @@
         <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -2811,48 +2812,48 @@
         <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -2867,48 +2868,48 @@
         <v>29</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
@@ -2923,48 +2924,48 @@
         <v>28</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -2979,48 +2980,48 @@
         <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>32</v>
@@ -3035,48 +3036,48 @@
         <v>28</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
@@ -3091,48 +3092,48 @@
         <v>29</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>33</v>
@@ -3147,48 +3148,48 @@
         <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>33</v>
@@ -3203,48 +3204,48 @@
         <v>29</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -3259,48 +3260,48 @@
         <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -3315,48 +3316,48 @@
         <v>29</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
@@ -3371,48 +3372,48 @@
         <v>28</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>35</v>
@@ -3427,48 +3428,48 @@
         <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>36</v>
@@ -3483,48 +3484,48 @@
         <v>28</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -3539,48 +3540,48 @@
         <v>29</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>37</v>
@@ -3595,48 +3596,48 @@
         <v>28</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>37</v>
@@ -3651,48 +3652,48 @@
         <v>29</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>38</v>
@@ -3707,48 +3708,48 @@
         <v>28</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>38</v>
@@ -3763,48 +3764,48 @@
         <v>29</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>39</v>
@@ -3819,48 +3820,48 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>39</v>
@@ -3875,48 +3876,48 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>40</v>
@@ -3931,28 +3932,28 @@
         <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>9</v>
@@ -3961,18 +3962,18 @@
         <v>9</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>40</v>
@@ -3987,28 +3988,28 @@
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>9</v>
@@ -4017,18 +4018,18 @@
         <v>9</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>42</v>
@@ -4043,34 +4044,34 @@
         <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>9</v>
@@ -4079,12 +4080,12 @@
         <v>9</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>44</v>
@@ -4099,28 +4100,28 @@
         <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>9</v>
@@ -4129,18 +4130,18 @@
         <v>9</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>46</v>
@@ -4155,28 +4156,28 @@
         <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>9</v>
@@ -4191,12 +4192,12 @@
         <v>9</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>48</v>
@@ -4211,48 +4212,48 @@
         <v>50</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>48</v>
@@ -4267,48 +4268,48 @@
         <v>51</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>52</v>
@@ -4323,48 +4324,48 @@
         <v>54</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>52</v>
@@ -4379,48 +4380,48 @@
         <v>55</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>56</v>
@@ -4435,31 +4436,31 @@
         <v>58</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>9</v>
@@ -4471,12 +4472,12 @@
         <v>9</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>56</v>
@@ -4491,31 +4492,31 @@
         <v>59</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>9</v>
@@ -4527,12 +4528,12 @@
         <v>9</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>60</v>
@@ -4547,34 +4548,34 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>9</v>
@@ -4583,12 +4584,12 @@
         <v>9</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>60</v>
@@ -4603,48 +4604,48 @@
         <v>63</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>60</v>
@@ -4659,48 +4660,48 @@
         <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>60</v>
@@ -4715,48 +4716,48 @@
         <v>17</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>64</v>
@@ -4771,35 +4772,35 @@
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O46" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="P46" s="6" t="s">
         <v>9</v>
       </c>
@@ -4807,12 +4808,12 @@
         <v>9</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>65</v>
@@ -4827,34 +4828,34 @@
         <v>9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>9</v>
@@ -4863,12 +4864,12 @@
         <v>9</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>65</v>
@@ -4883,28 +4884,28 @@
         <v>9</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>9</v>
@@ -4913,18 +4914,18 @@
         <v>9</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -4939,34 +4940,34 @@
         <v>9</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>9</v>
@@ -4975,12 +4976,12 @@
         <v>9</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>66</v>
@@ -4995,28 +4996,28 @@
         <v>9</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>9</v>
@@ -5025,18 +5026,18 @@
         <v>9</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5051,34 +5052,34 @@
         <v>54</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>89</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>9</v>
@@ -5087,12 +5088,12 @@
         <v>9</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>67</v>
@@ -5107,34 +5108,34 @@
         <v>55</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>89</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>9</v>
@@ -5143,12 +5144,12 @@
         <v>9</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>69</v>
@@ -5157,54 +5158,54 @@
         <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5213,54 +5214,54 @@
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>69</v>
@@ -5269,54 +5270,54 @@
         <v>7</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>69</v>
@@ -5325,278 +5326,278 @@
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="R56" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="R58" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N57" s="4" t="s">
+      <c r="H59" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="O57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="O59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="E60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N58" s="4" t="s">
+      <c r="H60" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N60" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="O58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>134</v>
+      <c r="O60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>73</v>
@@ -5611,34 +5612,34 @@
         <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>9</v>
@@ -5647,12 +5648,12 @@
         <v>9</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>74</v>
@@ -5667,34 +5668,34 @@
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>9</v>
@@ -5703,12 +5704,12 @@
         <v>9</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>74</v>
@@ -5723,28 +5724,28 @@
         <v>9</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>9</v>
@@ -5753,18 +5754,18 @@
         <v>9</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>76</v>
@@ -5779,48 +5780,48 @@
         <v>78</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>76</v>
@@ -5835,48 +5836,48 @@
         <v>78</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>93</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -5891,34 +5892,34 @@
         <v>81</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>9</v>
@@ -5927,12 +5928,12 @@
         <v>9</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>79</v>
@@ -5947,34 +5948,34 @@
         <v>82</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>9</v>
@@ -5983,12 +5984,12 @@
         <v>9</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>79</v>
@@ -6003,34 +6004,34 @@
         <v>83</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>9</v>
@@ -6039,12 +6040,12 @@
         <v>9</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>79</v>
@@ -6059,34 +6060,34 @@
         <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P69" s="4" t="s">
         <v>9</v>
@@ -6095,12 +6096,12 @@
         <v>9</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>85</v>
@@ -6115,34 +6116,34 @@
         <v>28</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P70" s="4" t="s">
         <v>9</v>
@@ -6151,12 +6152,12 @@
         <v>9</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>85</v>
@@ -6171,34 +6172,34 @@
         <v>29</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>9</v>
@@ -6207,12 +6208,12 @@
         <v>9</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>85</v>
@@ -6227,34 +6228,34 @@
         <v>86</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>9</v>
@@ -6263,7 +6264,7 @@
         <v>9</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6288,810 +6289,810 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" t="s">
         <v>198</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>199</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>200</v>
-      </c>
-      <c r="R9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" t="s">
         <v>202</v>
       </c>
-      <c r="P10" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>203</v>
-      </c>
       <c r="R10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" t="s">
         <v>204</v>
       </c>
-      <c r="P11" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>205</v>
-      </c>
       <c r="R11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" t="s">
         <v>206</v>
       </c>
-      <c r="P12" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>207</v>
-      </c>
       <c r="R12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13" t="s">
         <v>208</v>
       </c>
-      <c r="P13" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>209</v>
-      </c>
       <c r="R13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" t="s">
         <v>210</v>
       </c>
-      <c r="P14" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>211</v>
-      </c>
       <c r="R14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" t="s">
         <v>212</v>
       </c>
-      <c r="P15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>213</v>
-      </c>
       <c r="R15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" t="s">
         <v>214</v>
       </c>
-      <c r="P16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>215</v>
-      </c>
       <c r="R16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" t="s">
         <v>216</v>
       </c>
-      <c r="P17" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>217</v>
-      </c>
       <c r="R17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" t="s">
         <v>218</v>
       </c>
-      <c r="P18" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>219</v>
-      </c>
       <c r="R18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q19" t="s">
         <v>220</v>
       </c>
-      <c r="P19" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>221</v>
-      </c>
       <c r="R19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" t="s">
         <v>222</v>
       </c>
-      <c r="P20" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>223</v>
-      </c>
       <c r="R20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q21" t="s">
         <v>224</v>
       </c>
-      <c r="P21" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>225</v>
-      </c>
       <c r="R21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q22" t="s">
         <v>226</v>
       </c>
-      <c r="P22" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>227</v>
-      </c>
       <c r="R22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" t="s">
         <v>228</v>
       </c>
-      <c r="P23" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>229</v>
-      </c>
       <c r="R23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" t="s">
         <v>230</v>
       </c>
-      <c r="P24" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>231</v>
-      </c>
       <c r="R24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q27" t="s">
         <v>232</v>
       </c>
-      <c r="P27" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>233</v>
-      </c>
       <c r="R27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" t="s">
         <v>234</v>
       </c>
-      <c r="P28" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>235</v>
-      </c>
       <c r="R28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" t="s">
         <v>236</v>
       </c>
-      <c r="P29" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>237</v>
-      </c>
       <c r="R29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q30" t="s">
         <v>238</v>
       </c>
-      <c r="P30" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>239</v>
-      </c>
       <c r="R30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" t="s">
         <v>240</v>
       </c>
-      <c r="P31" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>241</v>
-      </c>
       <c r="R31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O32" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q32" t="s">
         <v>242</v>
       </c>
-      <c r="P32" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>243</v>
-      </c>
       <c r="R32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" t="s">
         <v>244</v>
       </c>
-      <c r="P33" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>245</v>
-      </c>
       <c r="R33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" t="s">
         <v>246</v>
       </c>
-      <c r="P34" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>247</v>
-      </c>
       <c r="R34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q35" t="s">
         <v>248</v>
       </c>
-      <c r="P35" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>249</v>
-      </c>
       <c r="R35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O36" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q36" t="s">
         <v>250</v>
       </c>
-      <c r="P36" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>251</v>
-      </c>
       <c r="R36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O37" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q37" t="s">
         <v>252</v>
       </c>
-      <c r="P37" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>253</v>
-      </c>
       <c r="R37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q38" t="s">
         <v>254</v>
       </c>
-      <c r="P38" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>255</v>
-      </c>
       <c r="R38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P39" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q39" t="s">
         <v>256</v>
       </c>
-      <c r="P39" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>257</v>
-      </c>
       <c r="R39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O40" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q40" t="s">
         <v>258</v>
       </c>
-      <c r="P40" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>259</v>
-      </c>
       <c r="R40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P41" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q41" t="s">
         <v>260</v>
       </c>
-      <c r="P41" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>261</v>
-      </c>
       <c r="R41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O42" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P42" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q42" t="s">
         <v>262</v>
       </c>
-      <c r="P42" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>263</v>
-      </c>
       <c r="R42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" t="s">
         <v>275</v>
       </c>
-      <c r="E73" t="s">
-        <v>276</v>
-      </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" t="s">
         <v>277</v>
       </c>
-      <c r="E74" t="s">
-        <v>278</v>
-      </c>
       <c r="G74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" t="s">
         <v>279</v>
       </c>
-      <c r="E75" t="s">
-        <v>280</v>
-      </c>
       <c r="G75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
+        <v>280</v>
+      </c>
+      <c r="E76" t="s">
         <v>281</v>
       </c>
-      <c r="E76" t="s">
-        <v>282</v>
-      </c>
       <c r="G76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7130,31 +7131,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7240,7 +7241,7 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7251,7 +7252,7 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7262,7 +7263,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7284,7 +7285,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7295,7 +7296,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7306,7 +7307,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7317,7 +7318,7 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7328,7 +7329,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7339,7 +7340,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -7350,7 +7351,7 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -7383,7 +7384,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -7394,7 +7395,7 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -7405,7 +7406,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7416,7 +7417,7 @@
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7427,7 +7428,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7438,7 +7439,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7449,7 +7450,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7460,7 +7461,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7471,7 +7472,7 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7493,7 +7494,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7504,7 +7505,7 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7581,7 +7582,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -7603,7 +7604,7 @@
         <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -7614,7 +7615,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -7625,7 +7626,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7636,7 +7637,7 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3284D445-1992-2848-B6F3-750096D0D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5D0AF5B-825C-6E4E-8D9B-BA2CC303210F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>PregnantOrBreastfeeding/HIVStatus</t>
   </si>
   <si>
-    <t>Age Aggregated/Sex/Indication/HIVStatus</t>
-  </si>
-  <si>
     <t>MobileMod/Age/Sex/Result</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>1-50+</t>
   </si>
   <si>
-    <t>F/M/U</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -854,9 +848,6 @@
     <t>tss_NewPos</t>
   </si>
   <si>
-    <t>&lt;15/&gt;15.d</t>
-  </si>
-  <si>
     <t>&lt;1-50+</t>
   </si>
   <si>
@@ -989,9 +980,6 @@
     <t>h0pvSVe1TYf</t>
   </si>
   <si>
-    <t>k2U2MDOywGj</t>
-  </si>
-  <si>
     <t>Qbz6SrpmJ1y</t>
   </si>
   <si>
@@ -1314,6 +1302,18 @@
   </si>
   <si>
     <t>pkZRNlMgL89</t>
+  </si>
+  <si>
+    <t>PxGprLSHtqv</t>
+  </si>
+  <si>
+    <t>tss_Neg</t>
+  </si>
+  <si>
+    <t>tss_Pos</t>
+  </si>
+  <si>
+    <t>tss_Unknown</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,6 +1666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1842,7 +1848,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1852,6 +1858,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2209,8 +2218,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R60" sqref="A57:R60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R65" sqref="A64:R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2237,63 +2246,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -2308,28 +2317,28 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>9</v>
@@ -2341,15 +2350,15 @@
         <v>9</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -2364,28 +2373,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>9</v>
@@ -2397,15 +2406,15 @@
         <v>9</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -2420,48 +2429,48 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -2476,48 +2485,48 @@
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2532,48 +2541,48 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>18</v>
@@ -2588,48 +2597,48 @@
         <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
@@ -2644,35 +2653,35 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="P8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2680,12 +2689,12 @@
         <v>9</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>27</v>
@@ -2700,48 +2709,48 @@
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>27</v>
@@ -2756,48 +2765,48 @@
         <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -2812,48 +2821,48 @@
         <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -2868,48 +2877,48 @@
         <v>29</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
@@ -2924,48 +2933,48 @@
         <v>28</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
@@ -2980,48 +2989,48 @@
         <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>32</v>
@@ -3036,48 +3045,48 @@
         <v>28</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
@@ -3092,48 +3101,48 @@
         <v>29</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>33</v>
@@ -3148,48 +3157,48 @@
         <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>33</v>
@@ -3204,48 +3213,48 @@
         <v>29</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -3260,48 +3269,48 @@
         <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -3316,48 +3325,48 @@
         <v>29</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
@@ -3372,48 +3381,48 @@
         <v>28</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R21" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>35</v>
@@ -3428,48 +3437,48 @@
         <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="R22" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>36</v>
@@ -3484,48 +3493,48 @@
         <v>28</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -3540,48 +3549,48 @@
         <v>29</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>37</v>
@@ -3596,48 +3605,48 @@
         <v>28</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>37</v>
@@ -3652,48 +3661,48 @@
         <v>29</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>38</v>
@@ -3708,48 +3717,48 @@
         <v>28</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>38</v>
@@ -3764,48 +3773,48 @@
         <v>29</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>39</v>
@@ -3820,48 +3829,48 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>39</v>
@@ -3876,48 +3885,48 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>40</v>
@@ -3932,28 +3941,28 @@
         <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>9</v>
@@ -3962,18 +3971,18 @@
         <v>9</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>40</v>
@@ -3988,28 +3997,28 @@
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>9</v>
@@ -4018,18 +4027,18 @@
         <v>9</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>42</v>
@@ -4044,34 +4053,34 @@
         <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>9</v>
@@ -4080,12 +4089,12 @@
         <v>9</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>44</v>
@@ -4100,28 +4109,28 @@
         <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>9</v>
@@ -4130,18 +4139,18 @@
         <v>9</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>46</v>
@@ -4156,28 +4165,28 @@
         <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>9</v>
@@ -4192,12 +4201,12 @@
         <v>9</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>48</v>
@@ -4212,48 +4221,48 @@
         <v>50</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>48</v>
@@ -4268,48 +4277,48 @@
         <v>51</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>52</v>
@@ -4324,48 +4333,48 @@
         <v>54</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>52</v>
@@ -4380,48 +4389,48 @@
         <v>55</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>56</v>
@@ -4436,31 +4445,31 @@
         <v>58</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>9</v>
@@ -4472,12 +4481,12 @@
         <v>9</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>56</v>
@@ -4492,31 +4501,31 @@
         <v>59</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>9</v>
@@ -4528,12 +4537,12 @@
         <v>9</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>60</v>
@@ -4548,34 +4557,34 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>9</v>
@@ -4584,12 +4593,12 @@
         <v>9</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>60</v>
@@ -4604,48 +4613,48 @@
         <v>63</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>60</v>
@@ -4660,48 +4669,48 @@
         <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>60</v>
@@ -4716,48 +4725,48 @@
         <v>17</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>64</v>
@@ -4772,35 +4781,35 @@
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O46" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O46" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="P46" s="6" t="s">
         <v>9</v>
       </c>
@@ -4808,12 +4817,12 @@
         <v>9</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>65</v>
@@ -4828,34 +4837,34 @@
         <v>9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>9</v>
@@ -4864,12 +4873,12 @@
         <v>9</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>65</v>
@@ -4884,28 +4893,28 @@
         <v>9</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>9</v>
@@ -4914,18 +4923,18 @@
         <v>9</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>66</v>
@@ -4940,34 +4949,34 @@
         <v>9</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>9</v>
@@ -4976,12 +4985,12 @@
         <v>9</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>66</v>
@@ -4996,28 +5005,28 @@
         <v>9</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>45</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>9</v>
@@ -5026,18 +5035,18 @@
         <v>9</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -5052,34 +5061,34 @@
         <v>54</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>89</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>9</v>
@@ -5088,12 +5097,12 @@
         <v>9</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>67</v>
@@ -5108,34 +5117,34 @@
         <v>55</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>89</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>9</v>
@@ -5144,12 +5153,12 @@
         <v>9</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>69</v>
@@ -5158,54 +5167,54 @@
         <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -5214,54 +5223,54 @@
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>69</v>
@@ -5270,54 +5279,54 @@
         <v>7</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>69</v>
@@ -5326,54 +5335,54 @@
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>70</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>71</v>
@@ -5388,34 +5397,34 @@
         <v>9</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>9</v>
@@ -5424,12 +5433,12 @@
         <v>9</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>71</v>
@@ -5444,48 +5453,48 @@
         <v>63</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>62</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>71</v>
@@ -5500,48 +5509,48 @@
         <v>16</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>62</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>71</v>
@@ -5556,328 +5565,328 @@
         <v>17</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>71</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>62</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="D65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="H65" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="R64" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>133</v>
+      <c r="L65" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>79</v>
@@ -5892,34 +5901,34 @@
         <v>81</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>9</v>
@@ -5928,12 +5937,12 @@
         <v>9</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>79</v>
@@ -5948,34 +5957,34 @@
         <v>82</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P67" s="4" t="s">
         <v>9</v>
@@ -5984,12 +5993,12 @@
         <v>9</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>79</v>
@@ -6004,34 +6013,34 @@
         <v>83</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>9</v>
@@ -6040,12 +6049,12 @@
         <v>9</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>79</v>
@@ -6060,211 +6069,211 @@
         <v>84</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L69" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="M70" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="G71" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="H71" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D72" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G70" s="4" t="s">
+      <c r="E72" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R70" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="H72" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M72" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R72" s="4" t="s">
-        <v>133</v>
+      <c r="N72" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6289,810 +6298,810 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" t="s">
         <v>196</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" t="s">
         <v>197</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>198</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>199</v>
-      </c>
-      <c r="R9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
         <v>196</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" t="s">
         <v>198</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>202</v>
-      </c>
-      <c r="R10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" t="s">
         <v>196</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" t="s">
         <v>198</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P12" t="s">
         <v>196</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" t="s">
         <v>198</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>206</v>
-      </c>
-      <c r="R12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" t="s">
         <v>196</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" t="s">
         <v>198</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>208</v>
-      </c>
-      <c r="R13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" t="s">
         <v>196</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
+        <v>208</v>
+      </c>
+      <c r="R14" t="s">
         <v>198</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>210</v>
-      </c>
-      <c r="R14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P15" t="s">
         <v>196</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
+        <v>210</v>
+      </c>
+      <c r="R15" t="s">
         <v>198</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>212</v>
-      </c>
-      <c r="R15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
+        <v>212</v>
+      </c>
+      <c r="R16" t="s">
         <v>198</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>214</v>
-      </c>
-      <c r="R16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" t="s">
         <v>198</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>216</v>
-      </c>
-      <c r="R17" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
+        <v>216</v>
+      </c>
+      <c r="R18" t="s">
         <v>198</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" t="s">
         <v>196</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>218</v>
+      </c>
+      <c r="R19" t="s">
         <v>198</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>220</v>
-      </c>
-      <c r="R19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
+        <v>220</v>
+      </c>
+      <c r="R20" t="s">
         <v>198</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>222</v>
-      </c>
-      <c r="R20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" t="s">
         <v>196</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R21" t="s">
         <v>198</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>224</v>
-      </c>
-      <c r="R21" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P22" t="s">
         <v>196</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
+        <v>224</v>
+      </c>
+      <c r="R22" t="s">
         <v>198</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>226</v>
-      </c>
-      <c r="R22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" t="s">
         <v>196</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
+        <v>226</v>
+      </c>
+      <c r="R23" t="s">
         <v>198</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>228</v>
-      </c>
-      <c r="R23" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" t="s">
         <v>196</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
+        <v>228</v>
+      </c>
+      <c r="R24" t="s">
         <v>198</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P27" t="s">
         <v>196</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
+        <v>230</v>
+      </c>
+      <c r="R27" t="s">
         <v>198</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>232</v>
-      </c>
-      <c r="R27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" t="s">
         <v>196</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
+        <v>232</v>
+      </c>
+      <c r="R28" t="s">
         <v>198</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>234</v>
-      </c>
-      <c r="R28" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" t="s">
         <v>196</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
+        <v>234</v>
+      </c>
+      <c r="R29" t="s">
         <v>198</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>236</v>
-      </c>
-      <c r="R29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P30" t="s">
         <v>196</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
+        <v>236</v>
+      </c>
+      <c r="R30" t="s">
         <v>198</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>238</v>
-      </c>
-      <c r="R30" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P31" t="s">
         <v>196</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
+        <v>238</v>
+      </c>
+      <c r="R31" t="s">
         <v>198</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>240</v>
-      </c>
-      <c r="R31" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P32" t="s">
         <v>196</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
+        <v>240</v>
+      </c>
+      <c r="R32" t="s">
         <v>198</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>242</v>
-      </c>
-      <c r="R32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P33" t="s">
         <v>196</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>242</v>
+      </c>
+      <c r="R33" t="s">
         <v>198</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>244</v>
-      </c>
-      <c r="R33" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" t="s">
         <v>196</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
+        <v>244</v>
+      </c>
+      <c r="R34" t="s">
         <v>198</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>246</v>
-      </c>
-      <c r="R34" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" t="s">
         <v>196</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
+        <v>246</v>
+      </c>
+      <c r="R35" t="s">
         <v>198</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>248</v>
-      </c>
-      <c r="R35" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" t="s">
         <v>196</v>
       </c>
-      <c r="O36" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
+        <v>248</v>
+      </c>
+      <c r="R36" t="s">
         <v>198</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>250</v>
-      </c>
-      <c r="R36" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" t="s">
         <v>196</v>
       </c>
-      <c r="O37" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
+        <v>250</v>
+      </c>
+      <c r="R37" t="s">
         <v>198</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>252</v>
-      </c>
-      <c r="R37" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P38" t="s">
         <v>196</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
+        <v>252</v>
+      </c>
+      <c r="R38" t="s">
         <v>198</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>254</v>
-      </c>
-      <c r="R38" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P39" t="s">
         <v>196</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
+        <v>254</v>
+      </c>
+      <c r="R39" t="s">
         <v>198</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>256</v>
-      </c>
-      <c r="R39" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" t="s">
         <v>196</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
+        <v>256</v>
+      </c>
+      <c r="R40" t="s">
         <v>198</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>258</v>
-      </c>
-      <c r="R40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P41" t="s">
         <v>196</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
+        <v>258</v>
+      </c>
+      <c r="R41" t="s">
         <v>198</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>260</v>
-      </c>
-      <c r="R41" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P42" t="s">
         <v>196</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
+        <v>260</v>
+      </c>
+      <c r="R42" t="s">
         <v>198</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>262</v>
-      </c>
-      <c r="R42" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7131,31 +7140,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" t="s">
-        <v>126</v>
-      </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7241,7 +7250,7 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7252,7 +7261,7 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7263,7 +7272,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7285,7 +7294,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7296,7 +7305,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7307,7 +7316,7 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7318,7 +7327,7 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7329,7 +7338,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7340,7 +7349,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -7351,7 +7360,7 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -7384,7 +7393,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -7395,7 +7404,7 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -7406,7 +7415,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7417,7 +7426,7 @@
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7428,7 +7437,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7439,7 +7448,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7450,7 +7459,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7461,7 +7470,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7472,7 +7481,7 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7494,7 +7503,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7505,7 +7514,7 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7582,7 +7591,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -7604,7 +7613,7 @@
         <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -7615,7 +7624,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -7626,7 +7635,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7637,7 +7646,7 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5D0AF5B-825C-6E4E-8D9B-BA2CC303210F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D0AB8B7-829F-C34C-9E3C-0AF8E6692814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="426">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="431">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -1314,13 +1314,28 @@
   </si>
   <si>
     <t>tss_Unknown</t>
+  </si>
+  <si>
+    <t>xzHStH1s4R1</t>
+  </si>
+  <si>
+    <t>tb_n_art_a</t>
+  </si>
+  <si>
+    <t>tb_n_art_n</t>
+  </si>
+  <si>
+    <t>tb_p_art_a</t>
+  </si>
+  <si>
+    <t>tb_p_art_n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1461,14 +1476,8 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC5C8C6"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,12 +1675,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1848,7 +1851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1857,10 +1860,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2218,8 +2217,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R65" sqref="A64:R65"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A44" sqref="A44"/>
+      <selection pane="topRight" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4842,7 +4843,7 @@
       <c r="G47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I47" s="6" t="s">
@@ -4898,7 +4899,7 @@
       <c r="G48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="6" t="s">
         <v>421</v>
       </c>
       <c r="I48" s="6" t="s">
@@ -5467,10 +5468,10 @@
       <c r="J58" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="6" t="s">
         <v>317</v>
       </c>
       <c r="M58" s="6" t="s">
@@ -5523,10 +5524,10 @@
       <c r="J59" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="6" t="s">
         <v>317</v>
       </c>
       <c r="M59" s="6" t="s">
@@ -5579,10 +5580,10 @@
       <c r="J60" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="6" t="s">
         <v>317</v>
       </c>
       <c r="M60" s="6" t="s">
@@ -5773,338 +5774,338 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q64" s="9" t="s">
+      <c r="P64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="R64" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q65" s="9" t="s">
+      <c r="P65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="R65" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M66" s="4" t="s">
+      <c r="K66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N66" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R66" s="4" t="s">
+      <c r="P66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="R66" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M67" s="4" t="s">
+      <c r="K67" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="M67" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="N67" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R67" s="4" t="s">
+      <c r="P67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="R67" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M68" s="4" t="s">
+      <c r="K68" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="M68" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R68" s="4" t="s">
+      <c r="P68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="R68" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="M69" s="4" t="s">
+      <c r="K69" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N69" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="O69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R69" s="4" t="s">
+      <c r="P69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="R69" s="6" t="s">
         <v>131</v>
       </c>
     </row>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D0AB8B7-829F-C34C-9E3C-0AF8E6692814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FECABC90-4FE3-E54F-A07C-320732626276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1660" uniqueCount="431">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1678" uniqueCount="433">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -1329,13 +1329,19 @@
   </si>
   <si>
     <t>tb_p_art_n</t>
+  </si>
+  <si>
+    <t>CXCA_SCRN.N.Age_Sex_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>qOgXk080fJH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1475,6 +1481,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1676,7 +1688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <start/>
       <end/>
@@ -1806,6 +1818,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1851,7 +1874,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1860,6 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2215,12 +2239,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="M63" sqref="M63"/>
+      <selection pane="topRight" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6277,10 +6301,67 @@
         <v>131</v>
       </c>
     </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R73">
     <sortCondition ref="A2:A73"/>
   </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B11F54AF-4F56-BD45-91F7-941B91E84F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96E7DF1B-1743-E64B-884B-B27C67A28603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1127,9 +1127,6 @@
     <t>VMMC_CIRC.N.Age_Sex_HIVStatus.T.Unknown</t>
   </si>
   <si>
-    <t>indicatorCode_fy20_cop</t>
-  </si>
-  <si>
     <t>DE_GROUP-XUA8pDYjPsw</t>
   </si>
   <si>
@@ -1209,6 +1206,9 @@
   </si>
   <si>
     <t>qOgXk080fJH</t>
+  </si>
+  <si>
+    <t>indicator_code</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2110,7 @@
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:E1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>295</v>
@@ -2181,7 +2181,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -2202,7 +2202,7 @@
         <v>293</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -2246,7 +2246,7 @@
         <v>293</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>9</v>
@@ -2269,13 +2269,13 @@
         <v>306</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>52</v>
@@ -2290,7 +2290,7 @@
         <v>278</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>90</v>
@@ -2313,13 +2313,13 @@
         <v>307</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>52</v>
@@ -2334,7 +2334,7 @@
         <v>278</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>90</v>
@@ -2357,13 +2357,13 @@
         <v>308</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>52</v>
@@ -2378,7 +2378,7 @@
         <v>277</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>90</v>
@@ -2401,13 +2401,13 @@
         <v>309</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>52</v>
@@ -2422,7 +2422,7 @@
         <v>277</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>90</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2466,7 +2466,7 @@
         <v>273</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>88</v>
@@ -2489,7 +2489,7 @@
         <v>310</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
@@ -2510,7 +2510,7 @@
         <v>276</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>90</v>
@@ -2533,7 +2533,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -2554,7 +2554,7 @@
         <v>276</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>90</v>
@@ -2577,7 +2577,7 @@
         <v>312</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -2598,7 +2598,7 @@
         <v>279</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>90</v>
@@ -2621,7 +2621,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -2642,7 +2642,7 @@
         <v>279</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>90</v>
@@ -2665,7 +2665,7 @@
         <v>314</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -2686,7 +2686,7 @@
         <v>283</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>91</v>
@@ -2709,7 +2709,7 @@
         <v>315</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -2730,7 +2730,7 @@
         <v>283</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>91</v>
@@ -2753,7 +2753,7 @@
         <v>316</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -2774,7 +2774,7 @@
         <v>294</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>90</v>
@@ -2797,7 +2797,7 @@
         <v>317</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -2818,7 +2818,7 @@
         <v>294</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>90</v>
@@ -2841,7 +2841,7 @@
         <v>318</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -2862,7 +2862,7 @@
         <v>285</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>90</v>
@@ -2885,7 +2885,7 @@
         <v>319</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -2906,7 +2906,7 @@
         <v>285</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>90</v>
@@ -2929,7 +2929,7 @@
         <v>320</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -2950,7 +2950,7 @@
         <v>286</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>90</v>
@@ -2973,7 +2973,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -2994,7 +2994,7 @@
         <v>286</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>90</v>
@@ -3017,7 +3017,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -3038,7 +3038,7 @@
         <v>287</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>91</v>
@@ -3061,7 +3061,7 @@
         <v>323</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -3082,7 +3082,7 @@
         <v>287</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>91</v>
@@ -3105,7 +3105,7 @@
         <v>324</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -3126,7 +3126,7 @@
         <v>288</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>90</v>
@@ -3149,7 +3149,7 @@
         <v>325</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -3170,7 +3170,7 @@
         <v>288</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>90</v>
@@ -3193,7 +3193,7 @@
         <v>326</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -3214,7 +3214,7 @@
         <v>290</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>90</v>
@@ -3237,7 +3237,7 @@
         <v>327</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
@@ -3258,7 +3258,7 @@
         <v>290</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>90</v>
@@ -3281,7 +3281,7 @@
         <v>328</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -3302,7 +3302,7 @@
         <v>291</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>90</v>
@@ -3325,7 +3325,7 @@
         <v>329</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -3346,7 +3346,7 @@
         <v>291</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>90</v>
@@ -3369,7 +3369,7 @@
         <v>330</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
@@ -3390,7 +3390,7 @@
         <v>292</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>90</v>
@@ -3413,7 +3413,7 @@
         <v>331</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
@@ -3434,7 +3434,7 @@
         <v>292</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>90</v>
@@ -3457,7 +3457,7 @@
         <v>332</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
@@ -3478,7 +3478,7 @@
         <v>282</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>9</v>
@@ -3501,7 +3501,7 @@
         <v>333</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
@@ -3522,7 +3522,7 @@
         <v>282</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>9</v>
@@ -3545,7 +3545,7 @@
         <v>299</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>22</v>
@@ -3566,7 +3566,7 @@
         <v>289</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>9</v>
@@ -3589,7 +3589,7 @@
         <v>300</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>24</v>
@@ -3610,7 +3610,7 @@
         <v>280</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>9</v>
@@ -3633,7 +3633,7 @@
         <v>301</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>26</v>
@@ -3654,7 +3654,7 @@
         <v>284</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>9</v>
@@ -3677,7 +3677,7 @@
         <v>334</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>27</v>
@@ -3698,7 +3698,7 @@
         <v>272</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>226</v>
@@ -3710,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>93</v>
@@ -3721,7 +3721,7 @@
         <v>335</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
@@ -3742,7 +3742,7 @@
         <v>272</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>226</v>
@@ -3754,7 +3754,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>93</v>
@@ -3765,7 +3765,7 @@
         <v>336</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>28</v>
@@ -3780,13 +3780,13 @@
         <v>248</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>88</v>
@@ -3809,7 +3809,7 @@
         <v>337</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>28</v>
@@ -3824,13 +3824,13 @@
         <v>248</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="I39" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>88</v>
@@ -3853,7 +3853,7 @@
         <v>302</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>29</v>
@@ -3874,7 +3874,7 @@
         <v>270</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>96</v>
@@ -3897,7 +3897,7 @@
         <v>303</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>29</v>
@@ -3918,7 +3918,7 @@
         <v>270</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>97</v>
@@ -3941,7 +3941,7 @@
         <v>338</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>31</v>
@@ -3962,7 +3962,7 @@
         <v>272</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>88</v>
@@ -3985,7 +3985,7 @@
         <v>339</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -4006,7 +4006,7 @@
         <v>275</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>88</v>
@@ -4029,7 +4029,7 @@
         <v>340</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -4050,7 +4050,7 @@
         <v>275</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>88</v>
@@ -4073,7 +4073,7 @@
         <v>341</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -4094,7 +4094,7 @@
         <v>275</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>88</v>
@@ -4117,7 +4117,7 @@
         <v>342</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>34</v>
@@ -4138,7 +4138,7 @@
         <v>272</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>88</v>
@@ -4161,13 +4161,13 @@
         <v>343</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>52</v>
@@ -4182,7 +4182,7 @@
         <v>272</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>99</v>
@@ -4205,13 +4205,13 @@
         <v>304</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>52</v>
@@ -4226,7 +4226,7 @@
         <v>280</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>9</v>
@@ -4249,7 +4249,7 @@
         <v>344</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>36</v>
@@ -4270,7 +4270,7 @@
         <v>272</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>99</v>
@@ -4293,7 +4293,7 @@
         <v>305</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>36</v>
@@ -4314,7 +4314,7 @@
         <v>280</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>9</v>
@@ -4337,7 +4337,7 @@
         <v>345</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>37</v>
@@ -4358,7 +4358,7 @@
         <v>271</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>232</v>
@@ -4381,7 +4381,7 @@
         <v>346</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>37</v>
@@ -4402,7 +4402,7 @@
         <v>271</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>232</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>38</v>
@@ -4443,10 +4443,10 @@
         <v>39</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>297</v>
@@ -4466,10 +4466,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>38</v>
@@ -4487,10 +4487,10 @@
         <v>39</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>297</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>38</v>
@@ -4531,10 +4531,10 @@
         <v>39</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>297</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>38</v>
@@ -4575,10 +4575,10 @@
         <v>39</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>297</v>
@@ -4601,7 +4601,7 @@
         <v>347</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -4622,7 +4622,7 @@
         <v>272</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>232</v>
@@ -4645,7 +4645,7 @@
         <v>348</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>40</v>
@@ -4666,7 +4666,7 @@
         <v>275</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>232</v>
@@ -4689,7 +4689,7 @@
         <v>349</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>40</v>
@@ -4710,7 +4710,7 @@
         <v>275</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>232</v>
@@ -4733,7 +4733,7 @@
         <v>350</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>40</v>
@@ -4754,7 +4754,7 @@
         <v>275</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>232</v>
@@ -4777,7 +4777,7 @@
         <v>351</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -4798,7 +4798,7 @@
         <v>274</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>232</v>
@@ -4821,7 +4821,7 @@
         <v>352</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>42</v>
@@ -4842,7 +4842,7 @@
         <v>274</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>232</v>
@@ -4865,7 +4865,7 @@
         <v>353</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>42</v>
@@ -4886,7 +4886,7 @@
         <v>281</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>9</v>
@@ -4909,7 +4909,7 @@
         <v>354</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>44</v>
@@ -4927,10 +4927,10 @@
         <v>45</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>232</v>
@@ -4953,7 +4953,7 @@
         <v>355</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>44</v>
@@ -4971,10 +4971,10 @@
         <v>45</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>232</v>
@@ -4997,7 +4997,7 @@
         <v>356</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>46</v>
@@ -5015,10 +5015,10 @@
         <v>47</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>297</v>
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>93</v>
@@ -5041,7 +5041,7 @@
         <v>357</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>46</v>
@@ -5059,10 +5059,10 @@
         <v>47</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>297</v>
@@ -5074,7 +5074,7 @@
         <v>9</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>93</v>
@@ -5085,7 +5085,7 @@
         <v>358</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>46</v>
@@ -5103,10 +5103,10 @@
         <v>47</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>297</v>
@@ -5118,7 +5118,7 @@
         <v>9</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>93</v>
@@ -5129,7 +5129,7 @@
         <v>359</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>46</v>
@@ -5147,10 +5147,10 @@
         <v>47</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>297</v>
@@ -5162,7 +5162,7 @@
         <v>9</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>93</v>
@@ -5173,7 +5173,7 @@
         <v>360</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>48</v>
@@ -5194,7 +5194,7 @@
         <v>274</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>99</v>
@@ -5206,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>93</v>
@@ -5217,7 +5217,7 @@
         <v>361</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>48</v>
@@ -5238,7 +5238,7 @@
         <v>274</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>99</v>
@@ -5250,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>93</v>
@@ -5261,7 +5261,7 @@
         <v>362</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>48</v>
@@ -5282,7 +5282,7 @@
         <v>274</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>99</v>
@@ -5294,7 +5294,7 @@
         <v>9</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>93</v>
@@ -5302,16 +5302,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>52</v>
@@ -5326,7 +5326,7 @@
         <v>274</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>99</v>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96E7DF1B-1743-E64B-884B-B27C67A28603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F2764C82-AD4F-3848-8A79-A1E8798F0082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="FY_19_targets_Draft Problematic" sheetId="3" r:id="rId3"/>
     <sheet name="Unused FY19 targets" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19Tto20TMap'!$A$1:$N$87</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1386" uniqueCount="391">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1582" uniqueCount="405">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -254,9 +257,6 @@
     <t>OtherMod/Age/Sex/Result</t>
   </si>
   <si>
-    <t>PMTCT ANC/Age/Sex/Result</t>
-  </si>
-  <si>
     <t>TB Test Type/HIVStatus</t>
   </si>
   <si>
@@ -902,9 +902,6 @@
     <t>iFlQUEQcsfZ</t>
   </si>
   <si>
-    <t>dmPR3N6lKPJ</t>
-  </si>
-  <si>
     <t>sdHeplyj1SL</t>
   </si>
   <si>
@@ -1209,6 +1206,54 @@
   </si>
   <si>
     <t>indicator_code</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_IndexMod.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_Index.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_Inpat.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_TB.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_PMTCT.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_PMTCTPostANC1.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_VMMC.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_STIClinic.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_Emergency.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_OtherPITC.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_VCT.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_MobileMod.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT_OtherMod.N.Age_Sex_Result.T</t>
+  </si>
+  <si>
+    <t>HTS_RECENT.N.KeyPop_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>PTL2kxpEOg3</t>
+  </si>
+  <si>
+    <t>PMTCT PostANC/Age/Sex/Result</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1546,12 +1591,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,14 +1781,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2105,104 +2143,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="67.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
@@ -2214,39 +2252,39 @@
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>9</v>
@@ -2258,441 +2296,441 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>230</v>
+      <c r="M4" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>231</v>
+      <c r="M5" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>308</v>
+      <c r="A6" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>277</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>231</v>
+      <c r="M7" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="L8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>9</v>
+      <c r="M8" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>310</v>
+      <c r="A9" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>276</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>223</v>
+      <c r="M9" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>314</v>
+      <c r="A13" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>9</v>
@@ -2701,86 +2739,86 @@
         <v>223</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>9</v>
@@ -2789,262 +2827,262 @@
         <v>223</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>317</v>
+      <c r="A16" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>322</v>
+      <c r="A21" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>9</v>
@@ -3053,86 +3091,86 @@
         <v>223</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>9</v>
@@ -3141,174 +3179,174 @@
         <v>223</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>325</v>
+      <c r="A24" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>328</v>
+      <c r="A27" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>9</v>
@@ -3317,86 +3355,86 @@
         <v>223</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>9</v>
@@ -3405,746 +3443,746 @@
         <v>223</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>61</v>
+        <v>404</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>223</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>333</v>
+      <c r="A32" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>301</v>
+      <c r="A35" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>370</v>
+        <v>223</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>336</v>
+      <c r="A38" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="L39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="N42" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="L44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>9</v>
@@ -4153,218 +4191,218 @@
         <v>9</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>9</v>
+        <v>367</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>25</v>
+        <v>369</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>9</v>
@@ -4373,42 +4411,42 @@
         <v>9</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>9</v>
@@ -4417,86 +4455,86 @@
         <v>9</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>9</v>
@@ -4505,306 +4543,306 @@
         <v>228</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>347</v>
+      <c r="A57" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>9</v>
@@ -4813,540 +4851,1157 @@
         <v>9</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>379</v>
+        <v>270</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>385</v>
+        <v>226</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>383</v>
+        <v>271</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>274</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>274</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>274</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>382</v>
+        <v>230</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>388</v>
+      <c r="A73" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>6</v>
+        <v>361</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>389</v>
+        <v>262</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>274</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K73" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N73" s="6" t="s">
+      <c r="K73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="M76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N73">
-    <sortCondition ref="A2:A73"/>
+  <autoFilter ref="A1:N87" xr:uid="{1831349A-3542-5B45-8A69-A97FE54E5E29}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N87">
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5367,810 +6022,810 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" t="s">
         <v>157</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>158</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>159</v>
-      </c>
-      <c r="R9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" t="s">
         <v>161</v>
       </c>
-      <c r="P10" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>162</v>
-      </c>
       <c r="R10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" t="s">
         <v>163</v>
       </c>
-      <c r="P11" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>164</v>
-      </c>
       <c r="R11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" t="s">
         <v>165</v>
       </c>
-      <c r="P12" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>166</v>
-      </c>
       <c r="R12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" t="s">
         <v>167</v>
       </c>
-      <c r="P13" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>168</v>
-      </c>
       <c r="R13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" t="s">
         <v>169</v>
       </c>
-      <c r="P14" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>170</v>
-      </c>
       <c r="R14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" t="s">
         <v>171</v>
       </c>
-      <c r="P15" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>172</v>
-      </c>
       <c r="R15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" t="s">
         <v>173</v>
       </c>
-      <c r="P16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>174</v>
-      </c>
       <c r="R16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" t="s">
         <v>175</v>
       </c>
-      <c r="P17" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>176</v>
-      </c>
       <c r="R17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" t="s">
         <v>177</v>
       </c>
-      <c r="P18" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>178</v>
-      </c>
       <c r="R18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q19" t="s">
         <v>179</v>
       </c>
-      <c r="P19" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>180</v>
-      </c>
       <c r="R19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q20" t="s">
         <v>181</v>
       </c>
-      <c r="P20" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>182</v>
-      </c>
       <c r="R20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q21" t="s">
         <v>183</v>
       </c>
-      <c r="P21" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>184</v>
-      </c>
       <c r="R21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" t="s">
         <v>185</v>
       </c>
-      <c r="P22" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>186</v>
-      </c>
       <c r="R22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" t="s">
         <v>187</v>
       </c>
-      <c r="P23" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>188</v>
-      </c>
       <c r="R23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" t="s">
         <v>189</v>
       </c>
-      <c r="P24" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>190</v>
-      </c>
       <c r="R24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O27" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q27" t="s">
         <v>191</v>
       </c>
-      <c r="P27" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>192</v>
-      </c>
       <c r="R27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" t="s">
         <v>193</v>
       </c>
-      <c r="P28" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>194</v>
-      </c>
       <c r="R28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" t="s">
         <v>195</v>
       </c>
-      <c r="P29" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>196</v>
-      </c>
       <c r="R29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q30" t="s">
         <v>197</v>
       </c>
-      <c r="P30" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>198</v>
-      </c>
       <c r="R30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P31" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q31" t="s">
         <v>199</v>
       </c>
-      <c r="P31" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>200</v>
-      </c>
       <c r="R31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P32" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q32" t="s">
         <v>201</v>
       </c>
-      <c r="P32" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>202</v>
-      </c>
       <c r="R32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q33" t="s">
         <v>203</v>
       </c>
-      <c r="P33" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>204</v>
-      </c>
       <c r="R33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" t="s">
         <v>205</v>
       </c>
-      <c r="P34" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>206</v>
-      </c>
       <c r="R34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P35" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q35" t="s">
         <v>207</v>
       </c>
-      <c r="P35" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>208</v>
-      </c>
       <c r="R35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" t="s">
         <v>209</v>
       </c>
-      <c r="P36" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>210</v>
-      </c>
       <c r="R36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O37" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P37" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q37" t="s">
         <v>211</v>
       </c>
-      <c r="P37" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>212</v>
-      </c>
       <c r="R37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P38" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q38" t="s">
         <v>213</v>
       </c>
-      <c r="P38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>214</v>
-      </c>
       <c r="R38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P39" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q39" t="s">
         <v>215</v>
       </c>
-      <c r="P39" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>216</v>
-      </c>
       <c r="R39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P40" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q40" t="s">
         <v>217</v>
       </c>
-      <c r="P40" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>218</v>
-      </c>
       <c r="R40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q41" t="s">
         <v>219</v>
       </c>
-      <c r="P41" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>220</v>
-      </c>
       <c r="R41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P42" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q42" t="s">
         <v>221</v>
       </c>
-      <c r="P42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>222</v>
-      </c>
       <c r="R42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" t="s">
         <v>233</v>
       </c>
-      <c r="E73" t="s">
-        <v>234</v>
-      </c>
       <c r="G73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" t="s">
         <v>235</v>
       </c>
-      <c r="E74" t="s">
-        <v>236</v>
-      </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
         <v>237</v>
       </c>
-      <c r="E75" t="s">
-        <v>238</v>
-      </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" t="s">
         <v>239</v>
       </c>
-      <c r="E76" t="s">
-        <v>240</v>
-      </c>
       <c r="G76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6209,31 +6864,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6341,7 +6996,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6418,7 +7073,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6429,7 +7084,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6693,7 +7348,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F2764C82-AD4F-3848-8A79-A1E8798F0082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3160F7E5-1B0C-8445-A297-C85076E84FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19Tto20TMap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Unused FY19 targets" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19Tto20TMap'!$A$1:$N$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19Tto20TMap'!$A$1:$N$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1582" uniqueCount="405">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1638" uniqueCount="409">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -1254,6 +1254,18 @@
   </si>
   <si>
     <t>PMTCT PostANC/Age/Sex/Result</t>
+  </si>
+  <si>
+    <t>HTS_SELF.N.KeyPop.T</t>
+  </si>
+  <si>
+    <t>TX_CURR.N.KeyPop_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>TX_PVLS.D.KeyPop_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>TX_PVLS.N.KeyPop_HIVStatus.T</t>
   </si>
 </sst>
 </file>
@@ -1781,13 +1793,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2143,12 +2156,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4019,8 +4032,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>402</v>
+      <c r="A43" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>361</v>
@@ -4056,51 +4069,51 @@
         <v>93</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>92</v>
@@ -4108,16 +4121,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>52</v>
@@ -4126,10 +4139,10 @@
         <v>247</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>362</v>
@@ -4138,10 +4151,10 @@
         <v>9</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>9</v>
@@ -4152,16 +4165,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>52</v>
@@ -4170,10 +4183,10 @@
         <v>247</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>362</v>
@@ -4185,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>9</v>
@@ -4196,16 +4209,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>52</v>
@@ -4214,25 +4227,25 @@
         <v>247</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>92</v>
@@ -4240,7 +4253,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>361</v>
@@ -4276,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>92</v>
@@ -4284,16 +4297,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>52</v>
@@ -4302,25 +4315,25 @@
         <v>247</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>226</v>
+        <v>368</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>92</v>
@@ -4328,7 +4341,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>361</v>
@@ -4364,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>92</v>
@@ -4372,16 +4385,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>52</v>
@@ -4390,25 +4403,25 @@
         <v>247</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>92</v>
@@ -4416,7 +4429,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>361</v>
@@ -4443,7 +4456,7 @@
         <v>362</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>9</v>
@@ -4460,37 +4473,37 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>9</v>
@@ -4504,7 +4517,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>361</v>
@@ -4516,16 +4529,16 @@
         <v>257</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>362</v>
@@ -4540,7 +4553,7 @@
         <v>9</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>92</v>
@@ -4548,7 +4561,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>361</v>
@@ -4584,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>92</v>
@@ -4592,7 +4605,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>361</v>
@@ -4628,15 +4641,15 @@
         <v>9</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>393</v>
+      <c r="A57" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>361</v>
@@ -4663,7 +4676,7 @@
         <v>362</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>97</v>
@@ -4679,17 +4692,17 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>340</v>
+      <c r="A58" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>52</v>
@@ -4698,25 +4711,25 @@
         <v>247</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>92</v>
@@ -4724,16 +4737,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>52</v>
@@ -4751,7 +4764,7 @@
         <v>362</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>88</v>
@@ -4768,7 +4781,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>361</v>
@@ -4786,22 +4799,22 @@
         <v>247</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>9</v>
@@ -4812,16 +4825,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>52</v>
@@ -4830,22 +4843,22 @@
         <v>247</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>9</v>
@@ -4856,7 +4869,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>361</v>
@@ -4874,22 +4887,22 @@
         <v>247</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>9</v>
@@ -4900,16 +4913,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>52</v>
@@ -4918,22 +4931,22 @@
         <v>247</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>9</v>
@@ -4944,7 +4957,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>361</v>
@@ -4988,34 +5001,34 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>88</v>
@@ -5024,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="N65" s="4" t="s">
         <v>92</v>
@@ -5032,7 +5045,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>361</v>
@@ -5068,7 +5081,7 @@
         <v>9</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>92</v>
@@ -5076,7 +5089,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>361</v>
@@ -5088,10 +5101,10 @@
         <v>261</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>39</v>
@@ -5112,7 +5125,7 @@
         <v>9</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>92</v>
@@ -5120,7 +5133,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>361</v>
@@ -5156,7 +5169,7 @@
         <v>9</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>92</v>
@@ -5164,34 +5177,34 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>88</v>
@@ -5200,7 +5213,7 @@
         <v>9</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>92</v>
@@ -5208,7 +5221,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>361</v>
@@ -5220,16 +5233,16 @@
         <v>262</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>362</v>
@@ -5244,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>92</v>
@@ -5252,7 +5265,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>361</v>
@@ -5288,7 +5301,7 @@
         <v>9</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>92</v>
@@ -5296,7 +5309,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>361</v>
@@ -5332,15 +5345,15 @@
         <v>9</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>392</v>
+      <c r="A73" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>361</v>
@@ -5367,7 +5380,7 @@
         <v>362</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>88</v>
@@ -5383,17 +5396,17 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>349</v>
+      <c r="A74" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>52</v>
@@ -5402,16 +5415,16 @@
         <v>247</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>88</v>
@@ -5420,7 +5433,7 @@
         <v>9</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>92</v>
@@ -5428,16 +5441,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>52</v>
@@ -5472,7 +5485,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>361</v>
@@ -5490,22 +5503,22 @@
         <v>247</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>9</v>
@@ -5516,43 +5529,43 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>92</v>
@@ -5560,43 +5573,43 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>92</v>
@@ -5604,43 +5617,43 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>382</v>
+        <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>92</v>
@@ -5648,43 +5661,43 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>383</v>
+        <v>9</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>92</v>
@@ -5692,16 +5705,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>50</v>
@@ -5710,16 +5723,16 @@
         <v>248</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>88</v>
@@ -5728,7 +5741,7 @@
         <v>9</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>92</v>
@@ -5736,16 +5749,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>50</v>
@@ -5754,16 +5767,16 @@
         <v>248</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>88</v>
@@ -5772,7 +5785,7 @@
         <v>9</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>385</v>
+        <v>240</v>
       </c>
       <c r="N82" s="4" t="s">
         <v>92</v>
@@ -5780,43 +5793,43 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>92</v>
@@ -5824,87 +5837,87 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>395</v>
+      <c r="A85" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>92</v>
@@ -5912,43 +5925,43 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>362</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>92</v>
@@ -5956,16 +5969,16 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>6</v>
+      <c r="C87" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>52</v>
@@ -5982,26 +5995,202 @@
       <c r="I87" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="J87" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K87" s="5" t="s">
+      <c r="K87" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N87" s="5" t="s">
+      <c r="L91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" s="5" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N87" xr:uid="{1831349A-3542-5B45-8A69-A97FE54E5E29}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N87">
-    <sortCondition ref="A2:A87"/>
+  <autoFilter ref="A1:N91" xr:uid="{1831349A-3542-5B45-8A69-A97FE54E5E29}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N91">
+    <sortCondition ref="A2:A91"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3160F7E5-1B0C-8445-A297-C85076E84FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95ECAC2-7187-894E-826F-0FBF05B610F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1638" uniqueCount="409">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1638" uniqueCount="411">
   <si>
     <t>indicatorCode</t>
   </si>
@@ -1266,13 +1266,19 @@
   </si>
   <si>
     <t>TX_PVLS.N.KeyPop_HIVStatus.T</t>
+  </si>
+  <si>
+    <t>Age/Sex/ProgramStatus</t>
+  </si>
+  <si>
+    <t>QG5SE83IVmL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1424,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1793,7 +1805,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1801,6 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2158,10 +2171,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="A80" sqref="A80"/>
+      <selection pane="topRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4270,11 +4283,11 @@
       <c r="F48" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>271</v>
+      <c r="G48" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>362</v>
@@ -4314,11 +4327,11 @@
       <c r="F49" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>271</v>
+      <c r="G49" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>362</v>

--- a/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
+++ b/data-raw/snu_x_im_distribution_configuration/20Tto21TMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/data-pack-commons/data-raw/snu_x_im_distribution_configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95ECAC2-7187-894E-826F-0FBF05B610F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DD38D8A-2EFB-844F-9D1B-208FD34B1B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1813,7 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2171,10 +2171,10 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A44" sqref="A44"/>
-      <selection pane="topRight" activeCell="G46" sqref="G46"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
